--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同月=100)/全国居民消费价格分类指数(上年同月=100)(-2015).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同月=100)/全国居民消费价格分类指数(上年同月=100)(-2015).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,1096 +483,1096 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.59999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="C2" t="n">
-        <v>101.3</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>99.59999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="F2" t="n">
-        <v>105</v>
+        <v>103.4</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>99.7</v>
+        <v>98.2</v>
       </c>
       <c r="J2" t="n">
-        <v>96.3</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.8</v>
+        <v>94.2</v>
       </c>
       <c r="C3" t="n">
-        <v>101.1</v>
+        <v>99.8</v>
       </c>
       <c r="D3" t="n">
-        <v>99.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>97.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="F3" t="n">
-        <v>105.5</v>
+        <v>103.6</v>
       </c>
       <c r="G3" t="n">
-        <v>101.3</v>
+        <v>100.7</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>99.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="J3" t="n">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>93.8</v>
       </c>
       <c r="C4" t="n">
-        <v>100.7</v>
+        <v>99.7</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="F4" t="n">
-        <v>105.2</v>
+        <v>104.1</v>
       </c>
       <c r="G4" t="n">
-        <v>101.5</v>
+        <v>99.8</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>99.8</v>
+        <v>98.5</v>
       </c>
       <c r="J4" t="n">
-        <v>99.90000000000001</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年1月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.2</v>
+        <v>93.7</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="D5" t="n">
-        <v>96.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="E5" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="F5" t="n">
-        <v>103.4</v>
+        <v>105</v>
       </c>
       <c r="G5" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>98.2</v>
+        <v>98.8</v>
       </c>
       <c r="J5" t="n">
-        <v>96.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.2</v>
+        <v>93.8</v>
       </c>
       <c r="C6" t="n">
         <v>99.8</v>
       </c>
       <c r="D6" t="n">
-        <v>96.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="E6" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>103.6</v>
+        <v>105.9</v>
       </c>
       <c r="G6" t="n">
-        <v>100.7</v>
+        <v>100.1</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>98.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>98.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>95.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E7" t="n">
         <v>97.7</v>
       </c>
       <c r="F7" t="n">
-        <v>104.1</v>
+        <v>105.9</v>
       </c>
       <c r="G7" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>98.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>93.7</v>
       </c>
       <c r="C8" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>96.3</v>
+        <v>96.8</v>
       </c>
       <c r="E8" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>105</v>
+        <v>105.4</v>
       </c>
       <c r="G8" t="n">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>98.8</v>
+        <v>99.3</v>
       </c>
       <c r="J8" t="n">
-        <v>96.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="C9" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="D9" t="n">
-        <v>96.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>97.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
-        <v>105.9</v>
+        <v>104.4</v>
       </c>
       <c r="G9" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>96.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="C10" t="n">
-        <v>99.90000000000001</v>
+        <v>101.1</v>
       </c>
       <c r="D10" t="n">
-        <v>96.7</v>
+        <v>99.5</v>
       </c>
       <c r="E10" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
-        <v>105.9</v>
+        <v>104.6</v>
       </c>
       <c r="G10" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>99.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="J10" t="n">
-        <v>97.59999999999999</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C11" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>105</v>
+      </c>
+      <c r="G11" t="n">
         <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="F11" t="n">
-        <v>105.4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>100.5</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="J11" t="n">
-        <v>97.59999999999999</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="C12" t="n">
-        <v>100.5</v>
+        <v>101.1</v>
       </c>
       <c r="D12" t="n">
-        <v>96.40000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>98</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>104.4</v>
+        <v>105.5</v>
       </c>
       <c r="G12" t="n">
-        <v>100.3</v>
+        <v>101.3</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>99.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>97.40000000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="C13" t="n">
-        <v>101.1</v>
+        <v>100.7</v>
       </c>
       <c r="D13" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="F13" t="n">
-        <v>104.6</v>
+        <v>105.2</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>101.5</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="J13" t="n">
-        <v>96.3</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99</v>
+        <v>99.4956</v>
       </c>
       <c r="C14" t="n">
-        <v>99.5</v>
+        <v>100.4535</v>
       </c>
       <c r="D14" t="n">
-        <v>102.1</v>
+        <v>108.7902</v>
       </c>
       <c r="E14" t="n">
-        <v>97.59999999999999</v>
+        <v>98.1272</v>
       </c>
       <c r="F14" t="n">
-        <v>100.6</v>
+        <v>102.5357</v>
       </c>
       <c r="G14" t="n">
-        <v>100.2</v>
+        <v>101.1948</v>
       </c>
       <c r="H14" t="n">
-        <v>100.1</v>
+        <v>99.4552</v>
       </c>
       <c r="I14" t="n">
-        <v>98.09999999999999</v>
+        <v>98.6741</v>
       </c>
       <c r="J14" t="n">
-        <v>100.8</v>
+        <v>99.6174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C15" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="D15" t="n">
-        <v>102</v>
+        <v>109.3</v>
       </c>
       <c r="E15" t="n">
-        <v>97.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>100.6</v>
+        <v>102.4</v>
       </c>
       <c r="G15" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>100.2</v>
+        <v>99.5</v>
       </c>
       <c r="I15" t="n">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>99.2</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.8</v>
+        <v>98</v>
       </c>
       <c r="C16" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="D16" t="n">
-        <v>101.6</v>
+        <v>109.5</v>
       </c>
       <c r="E16" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="F16" t="n">
-        <v>100.7</v>
+        <v>102.2</v>
       </c>
       <c r="G16" t="n">
-        <v>99.7</v>
+        <v>100.8</v>
       </c>
       <c r="H16" t="n">
-        <v>100.1</v>
+        <v>99.5</v>
       </c>
       <c r="I16" t="n">
-        <v>98.3</v>
+        <v>97.8</v>
       </c>
       <c r="J16" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.4956</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>100.4535</v>
+        <v>100.3</v>
       </c>
       <c r="D17" t="n">
-        <v>108.7902</v>
+        <v>109.6</v>
       </c>
       <c r="E17" t="n">
-        <v>98.1272</v>
+        <v>97.7</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5357</v>
+        <v>101.6</v>
       </c>
       <c r="G17" t="n">
-        <v>101.1948</v>
+        <v>101.6</v>
       </c>
       <c r="H17" t="n">
-        <v>99.4552</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>98.6741</v>
+        <v>98</v>
       </c>
       <c r="J17" t="n">
-        <v>99.6174</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98.3</v>
+        <v>99.3</v>
       </c>
       <c r="C18" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="D18" t="n">
-        <v>109.3</v>
+        <v>109.4</v>
       </c>
       <c r="E18" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="F18" t="n">
-        <v>102.4</v>
+        <v>101.2</v>
       </c>
       <c r="G18" t="n">
-        <v>100</v>
+        <v>101.7</v>
       </c>
       <c r="H18" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>97.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="J18" t="n">
-        <v>96.7</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>109.5</v>
+        <v>109.1</v>
       </c>
       <c r="E19" t="n">
         <v>97.8</v>
       </c>
       <c r="F19" t="n">
-        <v>102.2</v>
+        <v>101</v>
       </c>
       <c r="G19" t="n">
-        <v>100.8</v>
+        <v>101.4</v>
       </c>
       <c r="H19" t="n">
         <v>99.5</v>
       </c>
       <c r="I19" t="n">
-        <v>97.8</v>
+        <v>98.3</v>
       </c>
       <c r="J19" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="C20" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>109.6</v>
+        <v>108.9</v>
       </c>
       <c r="E20" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="F20" t="n">
-        <v>101.6</v>
+        <v>100.7</v>
       </c>
       <c r="G20" t="n">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="H20" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="I20" t="n">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="J20" t="n">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>99.3</v>
       </c>
       <c r="C21" t="n">
-        <v>100.3</v>
+        <v>99.7</v>
       </c>
       <c r="D21" t="n">
-        <v>109.4</v>
+        <v>108.8</v>
       </c>
       <c r="E21" t="n">
         <v>97.7</v>
       </c>
       <c r="F21" t="n">
-        <v>101.2</v>
+        <v>100.5</v>
       </c>
       <c r="G21" t="n">
-        <v>101.7</v>
+        <v>101</v>
       </c>
       <c r="H21" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>98.2</v>
+        <v>97.7</v>
       </c>
       <c r="J21" t="n">
-        <v>101.7</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>99</v>
+      </c>
+      <c r="C22" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="C22" t="n">
-        <v>100</v>
-      </c>
       <c r="D22" t="n">
-        <v>109.1</v>
+        <v>101.9</v>
       </c>
       <c r="E22" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="G22" t="n">
-        <v>101.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>98.3</v>
+        <v>98</v>
       </c>
       <c r="J22" t="n">
-        <v>101</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="C23" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="D23" t="n">
-        <v>108.9</v>
+        <v>102.1</v>
       </c>
       <c r="E23" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="G23" t="n">
-        <v>101.5</v>
+        <v>100.2</v>
       </c>
       <c r="H23" t="n">
-        <v>99.5</v>
+        <v>100.1</v>
       </c>
       <c r="I23" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>101.5</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C24" t="n">
         <v>99.7</v>
       </c>
       <c r="D24" t="n">
-        <v>108.8</v>
+        <v>102</v>
       </c>
       <c r="E24" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="G24" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="H24" t="n">
-        <v>99.59999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="I24" t="n">
-        <v>97.7</v>
+        <v>98.3</v>
       </c>
       <c r="J24" t="n">
-        <v>100.2</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="C25" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="D25" t="n">
-        <v>101.9</v>
+        <v>101.6</v>
       </c>
       <c r="E25" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="F25" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="G25" t="n">
         <v>99.7</v>
       </c>
-      <c r="G25" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="H25" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="I25" t="n">
-        <v>98</v>
+        <v>98.3</v>
       </c>
       <c r="J25" t="n">
-        <v>100.3</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98</v>
+        <v>97.3</v>
       </c>
       <c r="C26" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="D26" t="n">
-        <v>100.9</v>
+        <v>101.3</v>
       </c>
       <c r="E26" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="G26" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="H26" t="n">
-        <v>99.5</v>
+        <v>100.2</v>
       </c>
       <c r="I26" t="n">
-        <v>97.2</v>
+        <v>98.2</v>
       </c>
       <c r="J26" t="n">
-        <v>99.5</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B27" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="G27" t="n">
+        <v>100</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I27" t="n">
         <v>98</v>
       </c>
-      <c r="C27" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="J27" t="n">
         <v>100.6</v>
-      </c>
-      <c r="E27" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="H27" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="I27" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="J27" t="n">
-        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>98.8</v>
       </c>
       <c r="D28" t="n">
-        <v>100.8</v>
+        <v>100.2</v>
       </c>
       <c r="E28" t="n">
-        <v>97.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="G28" t="n">
-        <v>99.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="H28" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="J28" t="n">
         <v>99.40000000000001</v>
-      </c>
-      <c r="I28" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="J28" t="n">
-        <v>100.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>97.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="D29" t="n">
-        <v>101.3</v>
+        <v>100.2</v>
       </c>
       <c r="E29" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="F29" t="n">
-        <v>100.6</v>
+        <v>99.8</v>
       </c>
       <c r="G29" t="n">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="H29" t="n">
         <v>100.2</v>
       </c>
       <c r="I29" t="n">
-        <v>98.2</v>
+        <v>97.8</v>
       </c>
       <c r="J29" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.5</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>99.2</v>
+        <v>98.7</v>
       </c>
       <c r="D30" t="n">
-        <v>100.8</v>
+        <v>100.4</v>
       </c>
       <c r="E30" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>100.6</v>
+        <v>99.7</v>
       </c>
       <c r="G30" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="I30" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>100.6</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C31" t="n">
         <v>98.8</v>
       </c>
       <c r="D31" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="E31" t="n">
-        <v>97.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="F31" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="G31" t="n">
         <v>99.2</v>
       </c>
       <c r="H31" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="I31" t="n">
         <v>97.8</v>
       </c>
       <c r="J31" t="n">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="C32" t="n">
         <v>98.8</v>
       </c>
       <c r="D32" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="E32" t="n">
-        <v>97.7</v>
+        <v>97.3</v>
       </c>
       <c r="F32" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="G32" t="n">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>98</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>97.90000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="E33" t="n">
-        <v>97.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="H33" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>98.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="J33" t="n">
-        <v>98.5</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="D34" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="E34" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="H34" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="I34" t="n">
-        <v>97.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="J34" t="n">
         <v>99.8</v>
@@ -1581,5407 +1581,5407 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="C35" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>100.5</v>
+        <v>100.9</v>
       </c>
       <c r="E35" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F35" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="H35" t="n">
         <v>99.5</v>
       </c>
-      <c r="G35" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>100</v>
-      </c>
       <c r="I35" t="n">
-        <v>97.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="J35" t="n">
-        <v>99.09999999999999</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="C36" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="D36" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="E36" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="F36" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
         <v>99.3</v>
       </c>
       <c r="H36" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="J36" t="n">
         <v>99.90000000000001</v>
-      </c>
-      <c r="I36" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C37" t="n">
-        <v>98.5</v>
+        <v>98.8</v>
       </c>
       <c r="D37" t="n">
         <v>100.8</v>
       </c>
       <c r="E37" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="F37" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="G37" t="n">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>97.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.5</v>
+        <v>98.7</v>
       </c>
       <c r="C38" t="n">
-        <v>101.1</v>
+        <v>98.84</v>
       </c>
       <c r="D38" t="n">
-        <v>101.3</v>
+        <v>100.94</v>
       </c>
       <c r="E38" t="n">
-        <v>97.59999999999999</v>
+        <v>97.19</v>
       </c>
       <c r="F38" t="n">
-        <v>102.3</v>
+        <v>100.95</v>
       </c>
       <c r="G38" t="n">
-        <v>101.8076</v>
+        <v>100.39</v>
       </c>
       <c r="H38" t="n">
-        <v>100.1</v>
+        <v>99.53</v>
       </c>
       <c r="I38" t="n">
-        <v>98.2</v>
+        <v>97.08</v>
       </c>
       <c r="J38" t="n">
-        <v>105.1</v>
+        <v>102.38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="C39" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D39" t="n">
         <v>101.3</v>
       </c>
-      <c r="D39" t="n">
-        <v>101.2</v>
-      </c>
       <c r="E39" t="n">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>103.1</v>
+        <v>100.9</v>
       </c>
       <c r="G39" t="n">
-        <v>102.9528</v>
+        <v>100.2</v>
       </c>
       <c r="H39" t="n">
-        <v>100.4</v>
+        <v>99.5</v>
       </c>
       <c r="I39" t="n">
-        <v>98.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>108.1</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.65819999999999</v>
+        <v>98</v>
       </c>
       <c r="C40" t="n">
-        <v>101.3541</v>
+        <v>99.3</v>
       </c>
       <c r="D40" t="n">
-        <v>101.1998</v>
+        <v>101.5</v>
       </c>
       <c r="E40" t="n">
-        <v>97.8322</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>103.4662</v>
+        <v>102.1</v>
       </c>
       <c r="G40" t="n">
-        <v>103.1875</v>
+        <v>100.922</v>
       </c>
       <c r="H40" t="n">
-        <v>100.8265</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>98.1968</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>108.5757</v>
+        <v>103.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98.7</v>
+        <v>97.952</v>
       </c>
       <c r="C41" t="n">
-        <v>98.84</v>
+        <v>100.9256</v>
       </c>
       <c r="D41" t="n">
-        <v>100.94</v>
+        <v>101.3959</v>
       </c>
       <c r="E41" t="n">
-        <v>97.19</v>
+        <v>97.1729</v>
       </c>
       <c r="F41" t="n">
-        <v>100.95</v>
+        <v>101.9011</v>
       </c>
       <c r="G41" t="n">
-        <v>100.39</v>
+        <v>101.0439</v>
       </c>
       <c r="H41" t="n">
-        <v>99.53</v>
+        <v>99.46169999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>97.08</v>
+        <v>97.6644</v>
       </c>
       <c r="J41" t="n">
-        <v>102.38</v>
+        <v>103.1802</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98</v>
+        <v>97.6362</v>
       </c>
       <c r="C42" t="n">
-        <v>98.90000000000001</v>
+        <v>102.1825</v>
       </c>
       <c r="D42" t="n">
-        <v>101.3</v>
+        <v>101.2348</v>
       </c>
       <c r="E42" t="n">
-        <v>97.09999999999999</v>
+        <v>97.36660000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>100.9</v>
+        <v>101.7751</v>
       </c>
       <c r="G42" t="n">
-        <v>100.2</v>
+        <v>100.6641</v>
       </c>
       <c r="H42" t="n">
-        <v>99.5</v>
+        <v>99.4447</v>
       </c>
       <c r="I42" t="n">
-        <v>97.09999999999999</v>
+        <v>97.5955</v>
       </c>
       <c r="J42" t="n">
-        <v>101.8</v>
+        <v>101.8573</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98</v>
+        <v>97.7</v>
       </c>
       <c r="C43" t="n">
-        <v>99.3</v>
+        <v>102.1</v>
       </c>
       <c r="D43" t="n">
-        <v>101.5</v>
+        <v>101.7</v>
       </c>
       <c r="E43" t="n">
-        <v>97.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="F43" t="n">
         <v>102.1</v>
       </c>
       <c r="G43" t="n">
-        <v>100.922</v>
+        <v>100.3385</v>
       </c>
       <c r="H43" t="n">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="I43" t="n">
-        <v>97.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="J43" t="n">
-        <v>103.2</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.952</v>
+        <v>97.6046</v>
       </c>
       <c r="C44" t="n">
-        <v>100.9256</v>
+        <v>101.6693</v>
       </c>
       <c r="D44" t="n">
-        <v>101.3959</v>
+        <v>101.4364</v>
       </c>
       <c r="E44" t="n">
-        <v>97.1729</v>
+        <v>97.46210000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>101.9011</v>
+        <v>102.3154</v>
       </c>
       <c r="G44" t="n">
-        <v>101.0439</v>
+        <v>100.5177</v>
       </c>
       <c r="H44" t="n">
-        <v>99.46169999999999</v>
+        <v>99.8263</v>
       </c>
       <c r="I44" t="n">
-        <v>97.6644</v>
+        <v>97.9738</v>
       </c>
       <c r="J44" t="n">
-        <v>103.1802</v>
+        <v>101.0237</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>97.6362</v>
+        <v>97.7</v>
       </c>
       <c r="C45" t="n">
-        <v>102.1825</v>
+        <v>101.4</v>
       </c>
       <c r="D45" t="n">
-        <v>101.2348</v>
+        <v>101.6</v>
       </c>
       <c r="E45" t="n">
-        <v>97.36660000000001</v>
+        <v>97.5</v>
       </c>
       <c r="F45" t="n">
-        <v>101.7751</v>
+        <v>102.2</v>
       </c>
       <c r="G45" t="n">
-        <v>100.6641</v>
+        <v>100.9111</v>
       </c>
       <c r="H45" t="n">
-        <v>99.4447</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>97.5955</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>101.8573</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.7</v>
+        <v>97.673</v>
       </c>
       <c r="C46" t="n">
-        <v>102.1</v>
+        <v>101.4879</v>
       </c>
       <c r="D46" t="n">
-        <v>101.7</v>
+        <v>101.1267</v>
       </c>
       <c r="E46" t="n">
-        <v>97.5</v>
+        <v>97.5377</v>
       </c>
       <c r="F46" t="n">
-        <v>102.1</v>
+        <v>101.9035</v>
       </c>
       <c r="G46" t="n">
-        <v>100.3385</v>
+        <v>101.1071</v>
       </c>
       <c r="H46" t="n">
-        <v>99.8</v>
+        <v>99.941</v>
       </c>
       <c r="I46" t="n">
-        <v>97.8</v>
+        <v>98.0107</v>
       </c>
       <c r="J46" t="n">
-        <v>100.4</v>
+        <v>103.1658</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>97.6046</v>
+        <v>97.5</v>
       </c>
       <c r="C47" t="n">
-        <v>101.6693</v>
+        <v>101.1</v>
       </c>
       <c r="D47" t="n">
-        <v>101.4364</v>
+        <v>101.3</v>
       </c>
       <c r="E47" t="n">
-        <v>97.46210000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>102.3154</v>
+        <v>102.3</v>
       </c>
       <c r="G47" t="n">
-        <v>100.5177</v>
+        <v>101.8076</v>
       </c>
       <c r="H47" t="n">
-        <v>99.8263</v>
+        <v>100.1</v>
       </c>
       <c r="I47" t="n">
-        <v>97.9738</v>
+        <v>98.2</v>
       </c>
       <c r="J47" t="n">
-        <v>101.0237</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B48" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="E48" t="n">
         <v>97.7</v>
       </c>
-      <c r="C48" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="D48" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="E48" t="n">
-        <v>97.5</v>
-      </c>
       <c r="F48" t="n">
-        <v>102.2</v>
+        <v>103.1</v>
       </c>
       <c r="G48" t="n">
-        <v>100.9111</v>
+        <v>102.9528</v>
       </c>
       <c r="H48" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="I48" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="J48" t="n">
-        <v>102.2</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>97.673</v>
+        <v>97.65819999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>101.4879</v>
+        <v>101.3541</v>
       </c>
       <c r="D49" t="n">
-        <v>101.1267</v>
+        <v>101.1998</v>
       </c>
       <c r="E49" t="n">
-        <v>97.5377</v>
+        <v>97.8322</v>
       </c>
       <c r="F49" t="n">
-        <v>101.9035</v>
+        <v>103.4662</v>
       </c>
       <c r="G49" t="n">
-        <v>101.1071</v>
+        <v>103.1875</v>
       </c>
       <c r="H49" t="n">
-        <v>99.941</v>
+        <v>100.8265</v>
       </c>
       <c r="I49" t="n">
-        <v>98.0107</v>
+        <v>98.1968</v>
       </c>
       <c r="J49" t="n">
-        <v>103.1658</v>
+        <v>108.5757</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>98.7302</v>
+        <v>98.7</v>
       </c>
       <c r="C50" t="n">
-        <v>99.196</v>
+        <v>101.6</v>
       </c>
       <c r="D50" t="n">
-        <v>101.9042</v>
+        <v>101.8</v>
       </c>
       <c r="E50" t="n">
-        <v>98.964</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>106.7854</v>
+        <v>102.8</v>
       </c>
       <c r="G50" t="n">
-        <v>104.2661</v>
+        <v>103.1728</v>
       </c>
       <c r="H50" t="n">
-        <v>101.3747</v>
+        <v>101</v>
       </c>
       <c r="I50" t="n">
-        <v>98.18859999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>110.0211</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>98.71380000000001</v>
+        <v>97.4285</v>
       </c>
       <c r="C51" t="n">
-        <v>99.1781</v>
+        <v>101.5316</v>
       </c>
       <c r="D51" t="n">
-        <v>102.0561</v>
+        <v>100.0806</v>
       </c>
       <c r="E51" t="n">
-        <v>98.9423</v>
+        <v>98.22150000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>106.3443</v>
+        <v>102.9819</v>
       </c>
       <c r="G51" t="n">
-        <v>102.847</v>
+        <v>102.0917</v>
       </c>
       <c r="H51" t="n">
-        <v>101.0859</v>
+        <v>100.8814</v>
       </c>
       <c r="I51" t="n">
-        <v>98.17489999999999</v>
+        <v>98.6683</v>
       </c>
       <c r="J51" t="n">
-        <v>105.9471</v>
+        <v>105.5712</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>98.58159999999999</v>
+        <v>98.0385</v>
       </c>
       <c r="C52" t="n">
-        <v>99.3211</v>
+        <v>101.4758</v>
       </c>
       <c r="D52" t="n">
-        <v>102.2567</v>
+        <v>100.5279</v>
       </c>
       <c r="E52" t="n">
-        <v>98.9423</v>
+        <v>98.33839999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>105.5997</v>
+        <v>103.1822</v>
       </c>
       <c r="G52" t="n">
-        <v>102.4234</v>
+        <v>103.0374</v>
       </c>
       <c r="H52" t="n">
-        <v>100.7305</v>
+        <v>101.0074</v>
       </c>
       <c r="I52" t="n">
-        <v>98.3462</v>
+        <v>98.9588</v>
       </c>
       <c r="J52" t="n">
-        <v>104.9033</v>
+        <v>107.86</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>98.7</v>
+        <v>98.35890000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>101.6</v>
+        <v>99.83499999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>101.8</v>
+        <v>100.913</v>
       </c>
       <c r="E53" t="n">
-        <v>98.09999999999999</v>
+        <v>98.44670000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>102.8</v>
+        <v>103.8173</v>
       </c>
       <c r="G53" t="n">
-        <v>103.1728</v>
+        <v>103.7993</v>
       </c>
       <c r="H53" t="n">
-        <v>101</v>
+        <v>101.0954</v>
       </c>
       <c r="I53" t="n">
-        <v>98.40000000000001</v>
+        <v>98.6968</v>
       </c>
       <c r="J53" t="n">
-        <v>108</v>
+        <v>110.1553</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>97.4285</v>
+        <v>98.6588</v>
       </c>
       <c r="C54" t="n">
-        <v>101.5316</v>
+        <v>98.62009999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>100.0806</v>
+        <v>101.193</v>
       </c>
       <c r="E54" t="n">
-        <v>98.22150000000001</v>
+        <v>98.4789</v>
       </c>
       <c r="F54" t="n">
-        <v>102.9819</v>
+        <v>104.5675</v>
       </c>
       <c r="G54" t="n">
-        <v>102.0917</v>
+        <v>104.3675</v>
       </c>
       <c r="H54" t="n">
-        <v>100.8814</v>
+        <v>101.38</v>
       </c>
       <c r="I54" t="n">
-        <v>98.6683</v>
+        <v>98.5916</v>
       </c>
       <c r="J54" t="n">
-        <v>105.5712</v>
+        <v>111.8065</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>98.0385</v>
+        <v>98.72069999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>101.4758</v>
+        <v>98.5737</v>
       </c>
       <c r="D55" t="n">
-        <v>100.5279</v>
+        <v>100.7161</v>
       </c>
       <c r="E55" t="n">
-        <v>98.33839999999999</v>
+        <v>98.6413</v>
       </c>
       <c r="F55" t="n">
-        <v>103.1822</v>
+        <v>104.9006</v>
       </c>
       <c r="G55" t="n">
-        <v>103.0374</v>
+        <v>104.9733</v>
       </c>
       <c r="H55" t="n">
-        <v>101.0074</v>
+        <v>101.5123</v>
       </c>
       <c r="I55" t="n">
-        <v>98.9588</v>
+        <v>98.5483</v>
       </c>
       <c r="J55" t="n">
-        <v>107.86</v>
+        <v>113.956</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>98.35890000000001</v>
+        <v>98.7966</v>
       </c>
       <c r="C56" t="n">
-        <v>99.83499999999999</v>
+        <v>98.8099</v>
       </c>
       <c r="D56" t="n">
-        <v>100.913</v>
+        <v>101.138</v>
       </c>
       <c r="E56" t="n">
-        <v>98.44670000000001</v>
+        <v>98.83329999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>103.8173</v>
+        <v>105.0352</v>
       </c>
       <c r="G56" t="n">
-        <v>103.7993</v>
+        <v>105.2661</v>
       </c>
       <c r="H56" t="n">
-        <v>101.0954</v>
+        <v>101.6095</v>
       </c>
       <c r="I56" t="n">
-        <v>98.6968</v>
+        <v>98.4019</v>
       </c>
       <c r="J56" t="n">
-        <v>110.1553</v>
+        <v>114.5998</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>98.6588</v>
+        <v>98.7739</v>
       </c>
       <c r="C57" t="n">
-        <v>98.62009999999999</v>
+        <v>99.00539999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>101.193</v>
+        <v>101.0528</v>
       </c>
       <c r="E57" t="n">
-        <v>98.4789</v>
+        <v>98.8556</v>
       </c>
       <c r="F57" t="n">
-        <v>104.5675</v>
+        <v>106.0121</v>
       </c>
       <c r="G57" t="n">
-        <v>104.3675</v>
+        <v>105.2524</v>
       </c>
       <c r="H57" t="n">
-        <v>101.38</v>
+        <v>101.5722</v>
       </c>
       <c r="I57" t="n">
-        <v>98.5916</v>
+        <v>98.3425</v>
       </c>
       <c r="J57" t="n">
-        <v>111.8065</v>
+        <v>113.9218</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>98.72069999999999</v>
+        <v>98.8163</v>
       </c>
       <c r="C58" t="n">
-        <v>98.5737</v>
+        <v>99.2011</v>
       </c>
       <c r="D58" t="n">
-        <v>100.7161</v>
+        <v>101.8548</v>
       </c>
       <c r="E58" t="n">
-        <v>98.6413</v>
+        <v>98.9395</v>
       </c>
       <c r="F58" t="n">
-        <v>104.9006</v>
+        <v>106.3899</v>
       </c>
       <c r="G58" t="n">
-        <v>104.9733</v>
+        <v>105.1915</v>
       </c>
       <c r="H58" t="n">
-        <v>101.5123</v>
+        <v>101.5129</v>
       </c>
       <c r="I58" t="n">
-        <v>98.5483</v>
+        <v>98.4147</v>
       </c>
       <c r="J58" t="n">
-        <v>113.956</v>
+        <v>112.9536</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>98.7966</v>
+        <v>98.7302</v>
       </c>
       <c r="C59" t="n">
-        <v>98.8099</v>
+        <v>99.196</v>
       </c>
       <c r="D59" t="n">
-        <v>101.138</v>
+        <v>101.9042</v>
       </c>
       <c r="E59" t="n">
-        <v>98.83329999999999</v>
+        <v>98.964</v>
       </c>
       <c r="F59" t="n">
-        <v>105.0352</v>
+        <v>106.7854</v>
       </c>
       <c r="G59" t="n">
-        <v>105.2661</v>
+        <v>104.2661</v>
       </c>
       <c r="H59" t="n">
-        <v>101.6095</v>
+        <v>101.3747</v>
       </c>
       <c r="I59" t="n">
-        <v>98.4019</v>
+        <v>98.18859999999999</v>
       </c>
       <c r="J59" t="n">
-        <v>114.5998</v>
+        <v>110.0211</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>98.7739</v>
+        <v>98.71380000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>99.00539999999999</v>
+        <v>99.1781</v>
       </c>
       <c r="D60" t="n">
-        <v>101.0528</v>
+        <v>102.0561</v>
       </c>
       <c r="E60" t="n">
-        <v>98.8556</v>
+        <v>98.9423</v>
       </c>
       <c r="F60" t="n">
-        <v>106.0121</v>
+        <v>106.3443</v>
       </c>
       <c r="G60" t="n">
-        <v>105.2524</v>
+        <v>102.847</v>
       </c>
       <c r="H60" t="n">
-        <v>101.5722</v>
+        <v>101.0859</v>
       </c>
       <c r="I60" t="n">
-        <v>98.3425</v>
+        <v>98.17489999999999</v>
       </c>
       <c r="J60" t="n">
-        <v>113.9218</v>
+        <v>105.9471</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>98.8163</v>
+        <v>98.58159999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>99.2011</v>
+        <v>99.3211</v>
       </c>
       <c r="D61" t="n">
-        <v>101.8548</v>
+        <v>102.2567</v>
       </c>
       <c r="E61" t="n">
-        <v>98.9395</v>
+        <v>98.9423</v>
       </c>
       <c r="F61" t="n">
-        <v>106.3899</v>
+        <v>105.5997</v>
       </c>
       <c r="G61" t="n">
-        <v>105.1915</v>
+        <v>102.4234</v>
       </c>
       <c r="H61" t="n">
-        <v>101.5129</v>
+        <v>100.7305</v>
       </c>
       <c r="I61" t="n">
-        <v>98.4147</v>
+        <v>98.3462</v>
       </c>
       <c r="J61" t="n">
-        <v>112.9536</v>
+        <v>104.9033</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>99.59310000000001</v>
+        <v>97.43219999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>100.5687</v>
+        <v>99.23350000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>101.2892</v>
+        <v>101.6691</v>
       </c>
       <c r="E62" t="n">
-        <v>100.4049</v>
+        <v>99.04089999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>104.8302</v>
+        <v>105.5442</v>
       </c>
       <c r="G62" t="n">
-        <v>101.2185</v>
+        <v>101.9088</v>
       </c>
       <c r="H62" t="n">
-        <v>100.3521</v>
+        <v>100.4606</v>
       </c>
       <c r="I62" t="n">
-        <v>98.8895</v>
+        <v>98.4319</v>
       </c>
       <c r="J62" t="n">
-        <v>101.3176</v>
+        <v>104.04</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>99.65479999999999</v>
+        <v>99.35599999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>100.5108</v>
+        <v>99.3493</v>
       </c>
       <c r="D63" t="n">
-        <v>101.1457</v>
+        <v>103.3223</v>
       </c>
       <c r="E63" t="n">
-        <v>100.5376</v>
+        <v>99.2139</v>
       </c>
       <c r="F63" t="n">
-        <v>104.7283</v>
+        <v>105.6027</v>
       </c>
       <c r="G63" t="n">
-        <v>101.3066</v>
+        <v>103.9482</v>
       </c>
       <c r="H63" t="n">
-        <v>100.3306</v>
+        <v>100.5921</v>
       </c>
       <c r="I63" t="n">
-        <v>98.9658</v>
+        <v>98.12739999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>101.5841</v>
+        <v>108.8044</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>99.658</v>
+        <v>98.7985</v>
       </c>
       <c r="C64" t="n">
-        <v>100.6897</v>
+        <v>99.3592</v>
       </c>
       <c r="D64" t="n">
-        <v>100.888</v>
+        <v>102.7892</v>
       </c>
       <c r="E64" t="n">
-        <v>100.6165</v>
+        <v>99.32899999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>104.9816</v>
+        <v>105.7845</v>
       </c>
       <c r="G64" t="n">
-        <v>101.5585</v>
+        <v>102.6881</v>
       </c>
       <c r="H64" t="n">
-        <v>100.3561</v>
+        <v>100.6443</v>
       </c>
       <c r="I64" t="n">
-        <v>99.1298</v>
+        <v>97.53189999999999</v>
       </c>
       <c r="J64" t="n">
-        <v>102.2365</v>
+        <v>105.5766</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>97.43219999999999</v>
+        <v>98.6223</v>
       </c>
       <c r="C65" t="n">
-        <v>99.23350000000001</v>
+        <v>99.34529999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>101.6691</v>
+        <v>102.7978</v>
       </c>
       <c r="E65" t="n">
-        <v>99.04089999999999</v>
+        <v>99.4807</v>
       </c>
       <c r="F65" t="n">
-        <v>105.5442</v>
+        <v>105.834</v>
       </c>
       <c r="G65" t="n">
-        <v>101.9088</v>
+        <v>101.8256</v>
       </c>
       <c r="H65" t="n">
-        <v>100.4606</v>
+        <v>100.59</v>
       </c>
       <c r="I65" t="n">
-        <v>98.4319</v>
+        <v>97.61320000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>104.04</v>
+        <v>103.0826</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>99.35599999999999</v>
+        <v>98.61360000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>99.3493</v>
+        <v>99.4508</v>
       </c>
       <c r="D66" t="n">
-        <v>103.3223</v>
+        <v>102.7652</v>
       </c>
       <c r="E66" t="n">
-        <v>99.2139</v>
+        <v>99.69</v>
       </c>
       <c r="F66" t="n">
-        <v>105.6027</v>
+        <v>105.8168</v>
       </c>
       <c r="G66" t="n">
-        <v>103.9482</v>
+        <v>101.7604</v>
       </c>
       <c r="H66" t="n">
-        <v>100.5921</v>
+        <v>100.3871</v>
       </c>
       <c r="I66" t="n">
-        <v>98.12739999999999</v>
+        <v>97.8175</v>
       </c>
       <c r="J66" t="n">
-        <v>108.8044</v>
+        <v>102.8114</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>98.7985</v>
+        <v>98.69540000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>99.3592</v>
+        <v>99.68210000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>102.7892</v>
+        <v>102.7305</v>
       </c>
       <c r="E67" t="n">
-        <v>99.32899999999999</v>
+        <v>99.974</v>
       </c>
       <c r="F67" t="n">
-        <v>105.7845</v>
+        <v>105.8486</v>
       </c>
       <c r="G67" t="n">
-        <v>102.6881</v>
+        <v>101.5997</v>
       </c>
       <c r="H67" t="n">
-        <v>100.6443</v>
+        <v>100.3061</v>
       </c>
       <c r="I67" t="n">
-        <v>97.53189999999999</v>
+        <v>98.0741</v>
       </c>
       <c r="J67" t="n">
-        <v>105.5766</v>
+        <v>102.1048</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>98.6223</v>
+        <v>99.0292</v>
       </c>
       <c r="C68" t="n">
-        <v>99.34529999999999</v>
+        <v>100.1931</v>
       </c>
       <c r="D68" t="n">
-        <v>102.7978</v>
+        <v>102.925</v>
       </c>
       <c r="E68" t="n">
-        <v>99.4807</v>
+        <v>100.0294</v>
       </c>
       <c r="F68" t="n">
-        <v>105.834</v>
+        <v>105.8755</v>
       </c>
       <c r="G68" t="n">
-        <v>101.8256</v>
+        <v>101.8035</v>
       </c>
       <c r="H68" t="n">
-        <v>100.59</v>
+        <v>100.3439</v>
       </c>
       <c r="I68" t="n">
-        <v>97.61320000000001</v>
+        <v>98.178</v>
       </c>
       <c r="J68" t="n">
-        <v>103.0826</v>
+        <v>102.32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>98.61360000000001</v>
+        <v>99.31229999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>99.4508</v>
+        <v>100.1962</v>
       </c>
       <c r="D69" t="n">
-        <v>102.7652</v>
+        <v>103.0255</v>
       </c>
       <c r="E69" t="n">
-        <v>99.69</v>
+        <v>100.1658</v>
       </c>
       <c r="F69" t="n">
-        <v>105.8168</v>
+        <v>105.2389</v>
       </c>
       <c r="G69" t="n">
-        <v>101.7604</v>
+        <v>101.2589</v>
       </c>
       <c r="H69" t="n">
-        <v>100.3871</v>
+        <v>100.2933</v>
       </c>
       <c r="I69" t="n">
-        <v>97.8175</v>
+        <v>98.3749</v>
       </c>
       <c r="J69" t="n">
-        <v>102.8114</v>
+        <v>100.8726</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>98.69540000000001</v>
+        <v>99.4114</v>
       </c>
       <c r="C70" t="n">
-        <v>99.68210000000001</v>
+        <v>100.4811</v>
       </c>
       <c r="D70" t="n">
-        <v>102.7305</v>
+        <v>101.3382</v>
       </c>
       <c r="E70" t="n">
-        <v>99.974</v>
+        <v>100.2536</v>
       </c>
       <c r="F70" t="n">
-        <v>105.8486</v>
+        <v>105.2382</v>
       </c>
       <c r="G70" t="n">
-        <v>101.5997</v>
+        <v>100.8786</v>
       </c>
       <c r="H70" t="n">
-        <v>100.3061</v>
+        <v>100.3281</v>
       </c>
       <c r="I70" t="n">
-        <v>98.0741</v>
+        <v>98.63630000000001</v>
       </c>
       <c r="J70" t="n">
-        <v>102.1048</v>
+        <v>100.3488</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>99.0292</v>
+        <v>99.59310000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>100.1931</v>
+        <v>100.5687</v>
       </c>
       <c r="D71" t="n">
-        <v>102.925</v>
+        <v>101.2892</v>
       </c>
       <c r="E71" t="n">
-        <v>100.0294</v>
+        <v>100.4049</v>
       </c>
       <c r="F71" t="n">
-        <v>105.8755</v>
+        <v>104.8302</v>
       </c>
       <c r="G71" t="n">
-        <v>101.8035</v>
+        <v>101.2185</v>
       </c>
       <c r="H71" t="n">
-        <v>100.3439</v>
+        <v>100.3521</v>
       </c>
       <c r="I71" t="n">
-        <v>98.178</v>
+        <v>98.8895</v>
       </c>
       <c r="J71" t="n">
-        <v>102.32</v>
+        <v>101.3176</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>99.31229999999999</v>
+        <v>99.65479999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>100.1962</v>
+        <v>100.5108</v>
       </c>
       <c r="D72" t="n">
-        <v>103.0255</v>
+        <v>101.1457</v>
       </c>
       <c r="E72" t="n">
-        <v>100.1658</v>
+        <v>100.5376</v>
       </c>
       <c r="F72" t="n">
-        <v>105.2389</v>
+        <v>104.7283</v>
       </c>
       <c r="G72" t="n">
-        <v>101.2589</v>
+        <v>101.3066</v>
       </c>
       <c r="H72" t="n">
-        <v>100.2933</v>
+        <v>100.3306</v>
       </c>
       <c r="I72" t="n">
-        <v>98.3749</v>
+        <v>98.9658</v>
       </c>
       <c r="J72" t="n">
-        <v>100.8726</v>
+        <v>101.5841</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>99.4114</v>
+        <v>99.658</v>
       </c>
       <c r="C73" t="n">
-        <v>100.4811</v>
+        <v>100.6897</v>
       </c>
       <c r="D73" t="n">
-        <v>101.3382</v>
+        <v>100.888</v>
       </c>
       <c r="E73" t="n">
-        <v>100.2536</v>
+        <v>100.6165</v>
       </c>
       <c r="F73" t="n">
-        <v>105.2382</v>
+        <v>104.9816</v>
       </c>
       <c r="G73" t="n">
-        <v>100.8786</v>
+        <v>101.5585</v>
       </c>
       <c r="H73" t="n">
-        <v>100.3281</v>
+        <v>100.3561</v>
       </c>
       <c r="I73" t="n">
-        <v>98.63630000000001</v>
+        <v>99.1298</v>
       </c>
       <c r="J73" t="n">
-        <v>100.3488</v>
+        <v>102.2365</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>100.14255914</v>
+        <v>99.54612749</v>
       </c>
       <c r="C74" t="n">
-        <v>101.2549831</v>
+        <v>100.32226378</v>
       </c>
       <c r="D74" t="n">
-        <v>98.65776575</v>
+        <v>100.91233721</v>
       </c>
       <c r="E74" t="n">
-        <v>101.69938638</v>
+        <v>100.57184698</v>
       </c>
       <c r="F74" t="n">
-        <v>104.60455908</v>
+        <v>105.16020811</v>
       </c>
       <c r="G74" t="n">
-        <v>101.40846395</v>
+        <v>101.88715608</v>
       </c>
       <c r="H74" t="n">
-        <v>100.83985366</v>
+        <v>100.2296221</v>
       </c>
       <c r="I74" t="n">
-        <v>99.76263672</v>
+        <v>98.40081881</v>
       </c>
       <c r="J74" t="n">
-        <v>102.22263457</v>
+        <v>103.64803613</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>100.28667144</v>
+        <v>98.98668474999999</v>
       </c>
       <c r="C75" t="n">
-        <v>101.31386688</v>
+        <v>100.47530155</v>
       </c>
       <c r="D75" t="n">
-        <v>98.51742276</v>
+        <v>99.52456665</v>
       </c>
       <c r="E75" t="n">
-        <v>101.79229634</v>
+        <v>100.64911565</v>
       </c>
       <c r="F75" t="n">
-        <v>104.21410021</v>
+        <v>105.20337413</v>
       </c>
       <c r="G75" t="n">
-        <v>101.88427219</v>
+        <v>100.86107014</v>
       </c>
       <c r="H75" t="n">
-        <v>100.99988473</v>
+        <v>100.20090684</v>
       </c>
       <c r="I75" t="n">
-        <v>100.11597277</v>
+        <v>98.59177154</v>
       </c>
       <c r="J75" t="n">
-        <v>103.68370771</v>
+        <v>101.18341001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>100.37015691</v>
+        <v>99.25757384000001</v>
       </c>
       <c r="C76" t="n">
-        <v>101.18413946</v>
+        <v>100.67221498</v>
       </c>
       <c r="D76" t="n">
-        <v>98.42743663</v>
+        <v>99.75871221</v>
       </c>
       <c r="E76" t="n">
-        <v>101.91767946</v>
+        <v>100.64822323</v>
       </c>
       <c r="F76" t="n">
-        <v>104.61510421</v>
+        <v>104.55179898</v>
       </c>
       <c r="G76" t="n">
-        <v>102.81446004</v>
+        <v>100.80363761</v>
       </c>
       <c r="H76" t="n">
-        <v>101.47428148</v>
+        <v>100.20784778</v>
       </c>
       <c r="I76" t="n">
-        <v>100.13907979</v>
+        <v>99.24135389999999</v>
       </c>
       <c r="J76" t="n">
-        <v>106.27712996</v>
+        <v>100.83182734</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>99.54612749</v>
+        <v>99.44891493999999</v>
       </c>
       <c r="C77" t="n">
-        <v>100.32226378</v>
+        <v>100.95421027</v>
       </c>
       <c r="D77" t="n">
-        <v>100.91233721</v>
+        <v>99.93648351</v>
       </c>
       <c r="E77" t="n">
-        <v>100.57184698</v>
+        <v>100.68536294</v>
       </c>
       <c r="F77" t="n">
-        <v>105.16020811</v>
+        <v>104.26332439</v>
       </c>
       <c r="G77" t="n">
-        <v>101.88715608</v>
+        <v>101.2105422</v>
       </c>
       <c r="H77" t="n">
-        <v>100.2296221</v>
+        <v>100.37812924</v>
       </c>
       <c r="I77" t="n">
-        <v>98.40081881</v>
+        <v>99.49455704</v>
       </c>
       <c r="J77" t="n">
-        <v>103.64803613</v>
+        <v>101.84195328</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>98.98668474999999</v>
+        <v>99.80380601</v>
       </c>
       <c r="C78" t="n">
-        <v>100.47530155</v>
+        <v>101.3470734</v>
       </c>
       <c r="D78" t="n">
-        <v>99.52456665</v>
+        <v>99.94604547</v>
       </c>
       <c r="E78" t="n">
-        <v>100.64911565</v>
+        <v>100.83081038</v>
       </c>
       <c r="F78" t="n">
-        <v>105.20337413</v>
+        <v>104.52789388</v>
       </c>
       <c r="G78" t="n">
-        <v>100.86107014</v>
+        <v>101.37625749</v>
       </c>
       <c r="H78" t="n">
-        <v>100.20090684</v>
+        <v>100.4349655</v>
       </c>
       <c r="I78" t="n">
-        <v>98.59177154</v>
+        <v>99.57776869</v>
       </c>
       <c r="J78" t="n">
-        <v>101.18341001</v>
+        <v>101.94819923</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>99.25757384000001</v>
+        <v>100.4051976</v>
       </c>
       <c r="C79" t="n">
-        <v>100.67221498</v>
+        <v>101.46444059</v>
       </c>
       <c r="D79" t="n">
-        <v>99.75871221</v>
+        <v>100.02335707</v>
       </c>
       <c r="E79" t="n">
-        <v>100.64822323</v>
+        <v>101.22228926</v>
       </c>
       <c r="F79" t="n">
-        <v>104.55179898</v>
+        <v>104.28895479</v>
       </c>
       <c r="G79" t="n">
-        <v>100.80363761</v>
+        <v>101.51075172</v>
       </c>
       <c r="H79" t="n">
-        <v>100.20784778</v>
+        <v>100.45334191</v>
       </c>
       <c r="I79" t="n">
-        <v>99.24135389999999</v>
+        <v>99.46117405</v>
       </c>
       <c r="J79" t="n">
-        <v>100.83182734</v>
+        <v>102.14993691</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>99.44891493999999</v>
+        <v>100.33650005</v>
       </c>
       <c r="C80" t="n">
-        <v>100.95421027</v>
+        <v>101.4246173</v>
       </c>
       <c r="D80" t="n">
-        <v>99.93648351</v>
+        <v>100.04904294</v>
       </c>
       <c r="E80" t="n">
-        <v>100.68536294</v>
+        <v>101.42991774</v>
       </c>
       <c r="F80" t="n">
-        <v>104.26332439</v>
+        <v>104.46243633</v>
       </c>
       <c r="G80" t="n">
-        <v>101.2105422</v>
+        <v>101.03288068</v>
       </c>
       <c r="H80" t="n">
-        <v>100.37812924</v>
+        <v>100.45470666</v>
       </c>
       <c r="I80" t="n">
-        <v>99.49455704</v>
+        <v>99.44148985</v>
       </c>
       <c r="J80" t="n">
-        <v>101.84195328</v>
+        <v>100.61846502</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>99.80380601</v>
+        <v>100.13429058</v>
       </c>
       <c r="C81" t="n">
-        <v>101.3470734</v>
+        <v>101.52709086</v>
       </c>
       <c r="D81" t="n">
-        <v>99.94604547</v>
+        <v>99.89427456</v>
       </c>
       <c r="E81" t="n">
-        <v>100.83081038</v>
+        <v>101.5333231</v>
       </c>
       <c r="F81" t="n">
-        <v>104.52789388</v>
+        <v>104.78204979</v>
       </c>
       <c r="G81" t="n">
-        <v>101.37625749</v>
+        <v>101.31926823</v>
       </c>
       <c r="H81" t="n">
-        <v>100.4349655</v>
+        <v>100.63316243</v>
       </c>
       <c r="I81" t="n">
-        <v>99.57776869</v>
+        <v>99.45577307000001</v>
       </c>
       <c r="J81" t="n">
-        <v>101.94819923</v>
+        <v>101.40711624</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>100.4051976</v>
+        <v>100.16871372</v>
       </c>
       <c r="C82" t="n">
-        <v>101.46444059</v>
+        <v>101.30384707</v>
       </c>
       <c r="D82" t="n">
-        <v>100.02335707</v>
+        <v>98.63700172999999</v>
       </c>
       <c r="E82" t="n">
-        <v>101.22228926</v>
+        <v>101.65521969</v>
       </c>
       <c r="F82" t="n">
-        <v>104.28895479</v>
+        <v>105.03539536</v>
       </c>
       <c r="G82" t="n">
-        <v>101.51075172</v>
+        <v>101.50943235</v>
       </c>
       <c r="H82" t="n">
-        <v>100.45334191</v>
+        <v>100.76105601</v>
       </c>
       <c r="I82" t="n">
-        <v>99.46117405</v>
+        <v>99.50807752</v>
       </c>
       <c r="J82" t="n">
-        <v>102.14993691</v>
+        <v>102.42724926</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>100.33650005</v>
+        <v>100.14255914</v>
       </c>
       <c r="C83" t="n">
-        <v>101.4246173</v>
+        <v>101.2549831</v>
       </c>
       <c r="D83" t="n">
-        <v>100.04904294</v>
+        <v>98.65776575</v>
       </c>
       <c r="E83" t="n">
-        <v>101.42991774</v>
+        <v>101.69938638</v>
       </c>
       <c r="F83" t="n">
-        <v>104.46243633</v>
+        <v>104.60455908</v>
       </c>
       <c r="G83" t="n">
-        <v>101.03288068</v>
+        <v>101.40846395</v>
       </c>
       <c r="H83" t="n">
-        <v>100.45470666</v>
+        <v>100.83985366</v>
       </c>
       <c r="I83" t="n">
-        <v>99.44148985</v>
+        <v>99.76263672</v>
       </c>
       <c r="J83" t="n">
-        <v>100.61846502</v>
+        <v>102.22263457</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>100.13429058</v>
+        <v>100.28667144</v>
       </c>
       <c r="C84" t="n">
-        <v>101.52709086</v>
+        <v>101.31386688</v>
       </c>
       <c r="D84" t="n">
-        <v>99.89427456</v>
+        <v>98.51742276</v>
       </c>
       <c r="E84" t="n">
-        <v>101.5333231</v>
+        <v>101.79229634</v>
       </c>
       <c r="F84" t="n">
-        <v>104.78204979</v>
+        <v>104.21410021</v>
       </c>
       <c r="G84" t="n">
-        <v>101.31926823</v>
+        <v>101.88427219</v>
       </c>
       <c r="H84" t="n">
-        <v>100.63316243</v>
+        <v>100.99988473</v>
       </c>
       <c r="I84" t="n">
-        <v>99.45577307000001</v>
+        <v>100.11597277</v>
       </c>
       <c r="J84" t="n">
-        <v>101.40711624</v>
+        <v>103.68370771</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>100.16871372</v>
+        <v>100.37015691</v>
       </c>
       <c r="C85" t="n">
-        <v>101.30384707</v>
+        <v>101.18413946</v>
       </c>
       <c r="D85" t="n">
-        <v>98.63700172999999</v>
+        <v>98.42743663</v>
       </c>
       <c r="E85" t="n">
-        <v>101.65521969</v>
+        <v>101.91767946</v>
       </c>
       <c r="F85" t="n">
-        <v>105.03539536</v>
+        <v>104.61510421</v>
       </c>
       <c r="G85" t="n">
-        <v>101.50943235</v>
+        <v>102.81446004</v>
       </c>
       <c r="H85" t="n">
-        <v>100.76105601</v>
+        <v>101.47428148</v>
       </c>
       <c r="I85" t="n">
-        <v>99.50807752</v>
+        <v>100.13907979</v>
       </c>
       <c r="J85" t="n">
-        <v>102.42724926</v>
+        <v>106.27712996</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>98.3</v>
+        <v>99.65546098999999</v>
       </c>
       <c r="C86" t="n">
-        <v>102.9</v>
+        <v>101.26366489</v>
       </c>
       <c r="D86" t="n">
-        <v>99.5</v>
+        <v>97.73109023000001</v>
       </c>
       <c r="E86" t="n">
-        <v>101.8</v>
+        <v>101.98896979</v>
       </c>
       <c r="F86" t="n">
-        <v>104.8</v>
+        <v>103.81230452</v>
       </c>
       <c r="G86" t="n">
-        <v>106.4972</v>
+        <v>102.17082051</v>
       </c>
       <c r="H86" t="n">
-        <v>101.7</v>
+        <v>101.53101973</v>
       </c>
       <c r="I86" t="n">
-        <v>98.7</v>
+        <v>100.45633653</v>
       </c>
       <c r="J86" t="n">
-        <v>117.6</v>
+        <v>105.01988052</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>98.56968584000001</v>
+        <v>99.63450602</v>
       </c>
       <c r="C87" t="n">
-        <v>103.06733148</v>
+        <v>101.40061815</v>
       </c>
       <c r="D87" t="n">
-        <v>99.54767735999999</v>
+        <v>99.23426651</v>
       </c>
       <c r="E87" t="n">
-        <v>101.88146595</v>
+        <v>102.15536814</v>
       </c>
       <c r="F87" t="n">
-        <v>105.99133722</v>
+        <v>103.67589823</v>
       </c>
       <c r="G87" t="n">
-        <v>106.94096704</v>
+        <v>102.70719652</v>
       </c>
       <c r="H87" t="n">
-        <v>101.7579594</v>
+        <v>101.76577664</v>
       </c>
       <c r="I87" t="n">
-        <v>98.61810800000001</v>
+        <v>100.20050466</v>
       </c>
       <c r="J87" t="n">
-        <v>118.20517443</v>
+        <v>106.02241473</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>98.63558955000001</v>
+        <v>100.07531964</v>
       </c>
       <c r="C88" t="n">
-        <v>103.18687899</v>
+        <v>101.38591777</v>
       </c>
       <c r="D88" t="n">
-        <v>99.4670758</v>
+        <v>98.95929683999999</v>
       </c>
       <c r="E88" t="n">
-        <v>101.88772086</v>
+        <v>102.15135032</v>
       </c>
       <c r="F88" t="n">
-        <v>105.87652526</v>
+        <v>104.00211485</v>
       </c>
       <c r="G88" t="n">
-        <v>106.50977044</v>
+        <v>103.27661236</v>
       </c>
       <c r="H88" t="n">
-        <v>101.68060332</v>
+        <v>101.7529444</v>
       </c>
       <c r="I88" t="n">
-        <v>98.32055659</v>
+        <v>99.83606147</v>
       </c>
       <c r="J88" t="n">
-        <v>116.70255479</v>
+        <v>107.71539229</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>99.65546098999999</v>
+        <v>99.79088942999999</v>
       </c>
       <c r="C89" t="n">
-        <v>101.26366489</v>
+        <v>101.48145981</v>
       </c>
       <c r="D89" t="n">
-        <v>97.73109023000001</v>
+        <v>98.77631379</v>
       </c>
       <c r="E89" t="n">
-        <v>101.98896979</v>
+        <v>102.16519899</v>
       </c>
       <c r="F89" t="n">
-        <v>103.81230452</v>
+        <v>104.22421086</v>
       </c>
       <c r="G89" t="n">
-        <v>102.17082051</v>
+        <v>103.03242499</v>
       </c>
       <c r="H89" t="n">
-        <v>101.53101973</v>
+        <v>101.65219127</v>
       </c>
       <c r="I89" t="n">
-        <v>100.45633653</v>
+        <v>99.83070112</v>
       </c>
       <c r="J89" t="n">
-        <v>105.01988052</v>
+        <v>107.051529</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>99.63450602</v>
+        <v>99.46169297</v>
       </c>
       <c r="C90" t="n">
-        <v>101.40061815</v>
+        <v>101.61087597</v>
       </c>
       <c r="D90" t="n">
-        <v>99.23426651</v>
+        <v>98.82793979</v>
       </c>
       <c r="E90" t="n">
-        <v>102.15536814</v>
+        <v>102.15561126</v>
       </c>
       <c r="F90" t="n">
-        <v>103.67589823</v>
+        <v>103.97427931</v>
       </c>
       <c r="G90" t="n">
-        <v>102.70719652</v>
+        <v>103.38511359</v>
       </c>
       <c r="H90" t="n">
-        <v>101.76577664</v>
+        <v>101.68412403</v>
       </c>
       <c r="I90" t="n">
-        <v>100.20050466</v>
+        <v>99.85329132</v>
       </c>
       <c r="J90" t="n">
-        <v>106.02241473</v>
+        <v>108.28247154</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>100.07531964</v>
+        <v>98.87265031</v>
       </c>
       <c r="C91" t="n">
-        <v>101.38591777</v>
+        <v>101.90043135</v>
       </c>
       <c r="D91" t="n">
-        <v>98.95929683999999</v>
+        <v>98.82910799</v>
       </c>
       <c r="E91" t="n">
-        <v>102.15135032</v>
+        <v>101.80506324</v>
       </c>
       <c r="F91" t="n">
-        <v>104.00211485</v>
+        <v>104.39974215</v>
       </c>
       <c r="G91" t="n">
-        <v>103.27661236</v>
+        <v>104.36301713</v>
       </c>
       <c r="H91" t="n">
-        <v>101.7529444</v>
+        <v>101.70241645</v>
       </c>
       <c r="I91" t="n">
-        <v>99.83606147</v>
+        <v>99.74930542</v>
       </c>
       <c r="J91" t="n">
-        <v>107.71539229</v>
+        <v>111.34000853</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>99.79088942999999</v>
+        <v>98.68978197</v>
       </c>
       <c r="C92" t="n">
-        <v>101.48145981</v>
+        <v>102.15720281</v>
       </c>
       <c r="D92" t="n">
-        <v>98.77631379</v>
+        <v>98.81203133</v>
       </c>
       <c r="E92" t="n">
-        <v>102.16519899</v>
+        <v>101.66255301</v>
       </c>
       <c r="F92" t="n">
-        <v>104.22421086</v>
+        <v>104.37901492</v>
       </c>
       <c r="G92" t="n">
-        <v>103.03242499</v>
+        <v>105.62080648</v>
       </c>
       <c r="H92" t="n">
-        <v>101.65219127</v>
+        <v>101.75017366</v>
       </c>
       <c r="I92" t="n">
-        <v>99.83070112</v>
+        <v>99.43205129</v>
       </c>
       <c r="J92" t="n">
-        <v>107.051529</v>
+        <v>115.43594271</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>99.46169297</v>
+        <v>98.66886914</v>
       </c>
       <c r="C93" t="n">
-        <v>101.61087597</v>
+        <v>102.29876116</v>
       </c>
       <c r="D93" t="n">
-        <v>98.82793979</v>
+        <v>98.88957077000001</v>
       </c>
       <c r="E93" t="n">
-        <v>102.15561126</v>
+        <v>101.74466428</v>
       </c>
       <c r="F93" t="n">
-        <v>103.97427931</v>
+        <v>104.27012908</v>
       </c>
       <c r="G93" t="n">
-        <v>103.38511359</v>
+        <v>106.51872175</v>
       </c>
       <c r="H93" t="n">
-        <v>101.68412403</v>
+        <v>101.72622785</v>
       </c>
       <c r="I93" t="n">
-        <v>99.85329132</v>
+        <v>99.13286986</v>
       </c>
       <c r="J93" t="n">
-        <v>108.28247154</v>
+        <v>118.18687919</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>98.87265031</v>
+        <v>98.55953509</v>
       </c>
       <c r="C94" t="n">
-        <v>101.90043135</v>
+        <v>102.62499517</v>
       </c>
       <c r="D94" t="n">
-        <v>98.82910799</v>
+        <v>99.62695801</v>
       </c>
       <c r="E94" t="n">
-        <v>101.80506324</v>
+        <v>101.82938602</v>
       </c>
       <c r="F94" t="n">
-        <v>104.39974215</v>
+        <v>104.20745454</v>
       </c>
       <c r="G94" t="n">
-        <v>104.36301713</v>
+        <v>106.24315898</v>
       </c>
       <c r="H94" t="n">
-        <v>101.70241645</v>
+        <v>101.68834289</v>
       </c>
       <c r="I94" t="n">
-        <v>99.74930542</v>
+        <v>99.03108268</v>
       </c>
       <c r="J94" t="n">
-        <v>111.34000853</v>
+        <v>116.86442054</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>98.68978197</v>
+        <v>98.3</v>
       </c>
       <c r="C95" t="n">
-        <v>102.15720281</v>
+        <v>102.9</v>
       </c>
       <c r="D95" t="n">
-        <v>98.81203133</v>
+        <v>99.5</v>
       </c>
       <c r="E95" t="n">
-        <v>101.66255301</v>
+        <v>101.8</v>
       </c>
       <c r="F95" t="n">
-        <v>104.37901492</v>
+        <v>104.8</v>
       </c>
       <c r="G95" t="n">
-        <v>105.62080648</v>
+        <v>106.4972</v>
       </c>
       <c r="H95" t="n">
-        <v>101.75017366</v>
+        <v>101.7</v>
       </c>
       <c r="I95" t="n">
-        <v>99.43205129</v>
+        <v>98.7</v>
       </c>
       <c r="J95" t="n">
-        <v>115.43594271</v>
+        <v>117.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>98.66886914</v>
+        <v>98.56968584000001</v>
       </c>
       <c r="C96" t="n">
-        <v>102.29876116</v>
+        <v>103.06733148</v>
       </c>
       <c r="D96" t="n">
-        <v>98.88957077000001</v>
+        <v>99.54767735999999</v>
       </c>
       <c r="E96" t="n">
-        <v>101.74466428</v>
+        <v>101.88146595</v>
       </c>
       <c r="F96" t="n">
-        <v>104.27012908</v>
+        <v>105.99133722</v>
       </c>
       <c r="G96" t="n">
-        <v>106.51872175</v>
+        <v>106.94096704</v>
       </c>
       <c r="H96" t="n">
-        <v>101.72622785</v>
+        <v>101.7579594</v>
       </c>
       <c r="I96" t="n">
-        <v>99.13286986</v>
+        <v>98.61810800000001</v>
       </c>
       <c r="J96" t="n">
-        <v>118.18687919</v>
+        <v>118.20517443</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>98.55953509</v>
+        <v>98.63558955000001</v>
       </c>
       <c r="C97" t="n">
-        <v>102.62499517</v>
+        <v>103.18687899</v>
       </c>
       <c r="D97" t="n">
-        <v>99.62695801</v>
+        <v>99.4670758</v>
       </c>
       <c r="E97" t="n">
-        <v>101.82938602</v>
+        <v>101.88772086</v>
       </c>
       <c r="F97" t="n">
-        <v>104.20745454</v>
+        <v>105.87652526</v>
       </c>
       <c r="G97" t="n">
-        <v>106.24315898</v>
+        <v>106.50977044</v>
       </c>
       <c r="H97" t="n">
-        <v>101.68834289</v>
+        <v>101.68060332</v>
       </c>
       <c r="I97" t="n">
-        <v>99.03108268</v>
+        <v>98.32055659</v>
       </c>
       <c r="J97" t="n">
-        <v>116.86442054</v>
+        <v>116.70255479</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>100.0288567</v>
+        <v>98.90300145</v>
       </c>
       <c r="C98" t="n">
-        <v>102.40561215</v>
+        <v>103.17309724</v>
       </c>
       <c r="D98" t="n">
-        <v>99.65420679</v>
+        <v>99.65321335</v>
       </c>
       <c r="E98" t="n">
-        <v>103.37614532</v>
+        <v>102.07384761</v>
       </c>
       <c r="F98" t="n">
-        <v>104.64154785</v>
+        <v>106.12640915</v>
       </c>
       <c r="G98" t="n">
-        <v>103.97440328</v>
+        <v>107.078064</v>
       </c>
       <c r="H98" t="n">
-        <v>103.41115361</v>
+        <v>102.11203867</v>
       </c>
       <c r="I98" t="n">
-        <v>98.66213587</v>
+        <v>98.09328436</v>
       </c>
       <c r="J98" t="n">
-        <v>108.50629881</v>
+        <v>118.17347496</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>99.32599608</v>
+        <v>98.64957212</v>
       </c>
       <c r="C99" t="n">
-        <v>101.97339389</v>
+        <v>103.21072668</v>
       </c>
       <c r="D99" t="n">
-        <v>99.74985896</v>
+        <v>99.11747724</v>
       </c>
       <c r="E99" t="n">
-        <v>103.09712273</v>
+        <v>102.09830596</v>
       </c>
       <c r="F99" t="n">
-        <v>101.13278591</v>
+        <v>106.58766126</v>
       </c>
       <c r="G99" t="n">
-        <v>102.43403967</v>
+        <v>108.74429963</v>
       </c>
       <c r="H99" t="n">
-        <v>103.223541</v>
+        <v>102.42962461</v>
       </c>
       <c r="I99" t="n">
-        <v>98.34229927</v>
+        <v>98.64820863999999</v>
       </c>
       <c r="J99" t="n">
-        <v>105.92817715</v>
+        <v>123.25224813</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>98.61630286</v>
+        <v>98.3455191</v>
       </c>
       <c r="C100" t="n">
-        <v>101.67827581</v>
+        <v>103.71731742</v>
       </c>
       <c r="D100" t="n">
-        <v>99.40393944</v>
+        <v>99.30479837999999</v>
       </c>
       <c r="E100" t="n">
-        <v>102.87510006</v>
+        <v>102.48435241</v>
       </c>
       <c r="F100" t="n">
-        <v>98.58141714</v>
+        <v>106.95384485</v>
       </c>
       <c r="G100" t="n">
-        <v>101.19987373</v>
+        <v>108.30971102</v>
       </c>
       <c r="H100" t="n">
-        <v>102.89572784</v>
+        <v>102.49562525</v>
       </c>
       <c r="I100" t="n">
-        <v>97.80186655</v>
+        <v>98.80477887000001</v>
       </c>
       <c r="J100" t="n">
-        <v>104.16510021</v>
+        <v>121.44800003</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>98.90300145</v>
+        <v>98.34544932999999</v>
       </c>
       <c r="C101" t="n">
-        <v>103.17309724</v>
+        <v>103.62491465</v>
       </c>
       <c r="D101" t="n">
-        <v>99.65321335</v>
+        <v>99.33629649</v>
       </c>
       <c r="E101" t="n">
-        <v>102.07384761</v>
+        <v>102.66971963</v>
       </c>
       <c r="F101" t="n">
-        <v>106.12640915</v>
+        <v>106.84068962</v>
       </c>
       <c r="G101" t="n">
-        <v>107.078064</v>
+        <v>108.48287208</v>
       </c>
       <c r="H101" t="n">
-        <v>102.11203867</v>
+        <v>102.63932662</v>
       </c>
       <c r="I101" t="n">
-        <v>98.09328436</v>
+        <v>98.63234161</v>
       </c>
       <c r="J101" t="n">
-        <v>118.17347496</v>
+        <v>122.10171699</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>98.64957212</v>
+        <v>98.37576146000001</v>
       </c>
       <c r="C102" t="n">
-        <v>103.21072668</v>
+        <v>103.28218029</v>
       </c>
       <c r="D102" t="n">
-        <v>99.11747724</v>
+        <v>98.76685059</v>
       </c>
       <c r="E102" t="n">
-        <v>102.09830596</v>
+        <v>102.76828296</v>
       </c>
       <c r="F102" t="n">
-        <v>106.58766126</v>
+        <v>107.11431671</v>
       </c>
       <c r="G102" t="n">
-        <v>108.74429963</v>
+        <v>107.71629022</v>
       </c>
       <c r="H102" t="n">
-        <v>102.42962461</v>
+        <v>102.84064532</v>
       </c>
       <c r="I102" t="n">
-        <v>98.64820863999999</v>
+        <v>98.49576251000001</v>
       </c>
       <c r="J102" t="n">
-        <v>123.25224813</v>
+        <v>119.87324038</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>98.3455191</v>
+        <v>98.86412735</v>
       </c>
       <c r="C103" t="n">
-        <v>103.71731742</v>
+        <v>103.12696165</v>
       </c>
       <c r="D103" t="n">
-        <v>99.30479837999999</v>
+        <v>99.00437367000001</v>
       </c>
       <c r="E103" t="n">
-        <v>102.48435241</v>
+        <v>102.90843093</v>
       </c>
       <c r="F103" t="n">
-        <v>106.95384485</v>
+        <v>107.66278411</v>
       </c>
       <c r="G103" t="n">
-        <v>108.30971102</v>
+        <v>107.08444119</v>
       </c>
       <c r="H103" t="n">
-        <v>102.49562525</v>
+        <v>103.06424094</v>
       </c>
       <c r="I103" t="n">
-        <v>98.80477887000001</v>
+        <v>98.46928757000001</v>
       </c>
       <c r="J103" t="n">
-        <v>121.44800003</v>
+        <v>117.29437303</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>98.34544932999999</v>
+        <v>99.73923492</v>
       </c>
       <c r="C104" t="n">
-        <v>103.62491465</v>
+        <v>103.07455038</v>
       </c>
       <c r="D104" t="n">
-        <v>99.33629649</v>
+        <v>99.06313345</v>
       </c>
       <c r="E104" t="n">
-        <v>102.66971963</v>
+        <v>103.11962788</v>
       </c>
       <c r="F104" t="n">
-        <v>106.84068962</v>
+        <v>107.72608194</v>
       </c>
       <c r="G104" t="n">
-        <v>108.48287208</v>
+        <v>106.30203433</v>
       </c>
       <c r="H104" t="n">
-        <v>102.63932662</v>
+        <v>103.12731348</v>
       </c>
       <c r="I104" t="n">
-        <v>98.63234161</v>
+        <v>98.58887973</v>
       </c>
       <c r="J104" t="n">
-        <v>122.10171699</v>
+        <v>114.42282239</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>98.37576146000001</v>
+        <v>99.82958214999999</v>
       </c>
       <c r="C105" t="n">
-        <v>103.28218029</v>
+        <v>102.87387483</v>
       </c>
       <c r="D105" t="n">
-        <v>98.76685059</v>
+        <v>99.24715268999999</v>
       </c>
       <c r="E105" t="n">
-        <v>102.76828296</v>
+        <v>103.20915271</v>
       </c>
       <c r="F105" t="n">
-        <v>107.11431671</v>
+        <v>107.14619522</v>
       </c>
       <c r="G105" t="n">
-        <v>107.71629022</v>
+        <v>104.90006459</v>
       </c>
       <c r="H105" t="n">
-        <v>102.84064532</v>
+        <v>103.25858489</v>
       </c>
       <c r="I105" t="n">
-        <v>98.49576251000001</v>
+        <v>98.93933833</v>
       </c>
       <c r="J105" t="n">
-        <v>119.87324038</v>
+        <v>110.27557388</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>98.86412735</v>
+        <v>99.83762061</v>
       </c>
       <c r="C106" t="n">
-        <v>103.12696165</v>
+        <v>102.60971258</v>
       </c>
       <c r="D106" t="n">
-        <v>99.00437367000001</v>
+        <v>99.64144551</v>
       </c>
       <c r="E106" t="n">
-        <v>102.90843093</v>
+        <v>103.22852205</v>
       </c>
       <c r="F106" t="n">
-        <v>107.66278411</v>
+        <v>106.47926722</v>
       </c>
       <c r="G106" t="n">
-        <v>107.08444119</v>
+        <v>104.64245341</v>
       </c>
       <c r="H106" t="n">
-        <v>103.06424094</v>
+        <v>103.41267148</v>
       </c>
       <c r="I106" t="n">
-        <v>98.46928757000001</v>
+        <v>98.83247736</v>
       </c>
       <c r="J106" t="n">
-        <v>117.29437303</v>
+        <v>109.70153879</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>99.73923492</v>
+        <v>100.0288567</v>
       </c>
       <c r="C107" t="n">
-        <v>103.07455038</v>
+        <v>102.40561215</v>
       </c>
       <c r="D107" t="n">
-        <v>99.06313345</v>
+        <v>99.65420679</v>
       </c>
       <c r="E107" t="n">
-        <v>103.11962788</v>
+        <v>103.37614532</v>
       </c>
       <c r="F107" t="n">
-        <v>107.72608194</v>
+        <v>104.64154785</v>
       </c>
       <c r="G107" t="n">
-        <v>106.30203433</v>
+        <v>103.97440328</v>
       </c>
       <c r="H107" t="n">
-        <v>103.12731348</v>
+        <v>103.41115361</v>
       </c>
       <c r="I107" t="n">
-        <v>98.58887973</v>
+        <v>98.66213587</v>
       </c>
       <c r="J107" t="n">
-        <v>114.42282239</v>
+        <v>108.50629881</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>99.82958214999999</v>
+        <v>99.32599608</v>
       </c>
       <c r="C108" t="n">
-        <v>102.87387483</v>
+        <v>101.97339389</v>
       </c>
       <c r="D108" t="n">
-        <v>99.24715268999999</v>
+        <v>99.74985896</v>
       </c>
       <c r="E108" t="n">
-        <v>103.20915271</v>
+        <v>103.09712273</v>
       </c>
       <c r="F108" t="n">
-        <v>107.14619522</v>
+        <v>101.13278591</v>
       </c>
       <c r="G108" t="n">
-        <v>104.90006459</v>
+        <v>102.43403967</v>
       </c>
       <c r="H108" t="n">
-        <v>103.25858489</v>
+        <v>103.223541</v>
       </c>
       <c r="I108" t="n">
-        <v>98.93933833</v>
+        <v>98.34229927</v>
       </c>
       <c r="J108" t="n">
-        <v>110.27557388</v>
+        <v>105.92817715</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>99.83762061</v>
+        <v>98.61630286</v>
       </c>
       <c r="C109" t="n">
-        <v>102.60971258</v>
+        <v>101.67827581</v>
       </c>
       <c r="D109" t="n">
-        <v>99.64144551</v>
+        <v>99.40393944</v>
       </c>
       <c r="E109" t="n">
-        <v>103.22852205</v>
+        <v>102.87510006</v>
       </c>
       <c r="F109" t="n">
-        <v>106.47926722</v>
+        <v>98.58141714</v>
       </c>
       <c r="G109" t="n">
-        <v>104.64245341</v>
+        <v>101.19987373</v>
       </c>
       <c r="H109" t="n">
-        <v>103.41267148</v>
+        <v>102.89572784</v>
       </c>
       <c r="I109" t="n">
-        <v>98.83247736</v>
+        <v>97.80186655</v>
       </c>
       <c r="J109" t="n">
-        <v>109.70153879</v>
+        <v>104.16510021</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>97.31419559</v>
+        <v>97.46494633</v>
       </c>
       <c r="C110" t="n">
-        <v>101.19531616</v>
+        <v>101.59659558</v>
       </c>
       <c r="D110" t="n">
-        <v>99.26904838</v>
+        <v>100.33099154</v>
       </c>
       <c r="E110" t="n">
-        <v>98.75433823</v>
+        <v>102.63122579</v>
       </c>
       <c r="F110" t="n">
-        <v>96.18638977000001</v>
+        <v>97.72987385</v>
       </c>
       <c r="G110" t="n">
-        <v>99.47213175</v>
+        <v>100.95240543</v>
       </c>
       <c r="H110" t="n">
-        <v>101.26777359</v>
+        <v>102.36611167</v>
       </c>
       <c r="I110" t="n">
-        <v>98.36014982</v>
+        <v>97.33827542</v>
       </c>
       <c r="J110" t="n">
-        <v>101.58218104</v>
+        <v>104.21102019</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>97.82547251</v>
+        <v>97.02977106</v>
       </c>
       <c r="C111" t="n">
-        <v>101.64075797</v>
+        <v>101.33548215</v>
       </c>
       <c r="D111" t="n">
-        <v>99.40550922</v>
+        <v>98.8608431</v>
       </c>
       <c r="E111" t="n">
-        <v>98.89683726</v>
+        <v>102.08518455</v>
       </c>
       <c r="F111" t="n">
-        <v>98.77981917</v>
+        <v>97.09678832</v>
       </c>
       <c r="G111" t="n">
-        <v>100.55833934</v>
+        <v>98.44177247</v>
       </c>
       <c r="H111" t="n">
-        <v>101.28994542</v>
+        <v>101.97351808</v>
       </c>
       <c r="I111" t="n">
-        <v>98.80264649</v>
+        <v>97.74666181000001</v>
       </c>
       <c r="J111" t="n">
-        <v>103.159762</v>
+        <v>98.08557596</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>98.54324544000001</v>
+        <v>97.51766585</v>
       </c>
       <c r="C112" t="n">
-        <v>102.18460803</v>
+        <v>100.99072744</v>
       </c>
       <c r="D112" t="n">
-        <v>99.73051384</v>
+        <v>99.26245398</v>
       </c>
       <c r="E112" t="n">
-        <v>98.94270679</v>
+        <v>101.49364926</v>
       </c>
       <c r="F112" t="n">
-        <v>101.46005191</v>
+        <v>96.45102125</v>
       </c>
       <c r="G112" t="n">
-        <v>101.85590353</v>
+        <v>98.82858207</v>
       </c>
       <c r="H112" t="n">
-        <v>101.35006049</v>
+        <v>101.79764583</v>
       </c>
       <c r="I112" t="n">
-        <v>99.20396223</v>
+        <v>97.65720349</v>
       </c>
       <c r="J112" t="n">
-        <v>105.31175789</v>
+        <v>99.33330237</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>97.46494633</v>
+        <v>97.79779488</v>
       </c>
       <c r="C113" t="n">
-        <v>101.59659558</v>
+        <v>100.90917407</v>
       </c>
       <c r="D113" t="n">
-        <v>100.33099154</v>
+        <v>99.03572613</v>
       </c>
       <c r="E113" t="n">
-        <v>102.63122579</v>
+        <v>100.89904462</v>
       </c>
       <c r="F113" t="n">
-        <v>97.72987385</v>
+        <v>95.96335899</v>
       </c>
       <c r="G113" t="n">
-        <v>100.95240543</v>
+        <v>98.49719435999999</v>
       </c>
       <c r="H113" t="n">
-        <v>102.36611167</v>
+        <v>101.6237933</v>
       </c>
       <c r="I113" t="n">
-        <v>97.33827542</v>
+        <v>97.69717297</v>
       </c>
       <c r="J113" t="n">
-        <v>104.21102019</v>
+        <v>98.66631331000001</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>97.02977106</v>
+        <v>97.72584125</v>
       </c>
       <c r="C114" t="n">
-        <v>101.33548215</v>
+        <v>100.86236978</v>
       </c>
       <c r="D114" t="n">
-        <v>98.8608431</v>
+        <v>99.24570703000001</v>
       </c>
       <c r="E114" t="n">
-        <v>102.08518455</v>
+        <v>100.50470881</v>
       </c>
       <c r="F114" t="n">
-        <v>97.09678832</v>
+        <v>95.23040068</v>
       </c>
       <c r="G114" t="n">
-        <v>98.44177247</v>
+        <v>98.62865505000001</v>
       </c>
       <c r="H114" t="n">
-        <v>101.97351808</v>
+        <v>101.40127924</v>
       </c>
       <c r="I114" t="n">
-        <v>97.74666181000001</v>
+        <v>97.74089057</v>
       </c>
       <c r="J114" t="n">
-        <v>98.08557596</v>
+        <v>99.35212505</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>97.51766585</v>
+        <v>97.630737</v>
       </c>
       <c r="C115" t="n">
-        <v>100.99072744</v>
+        <v>100.89630861</v>
       </c>
       <c r="D115" t="n">
-        <v>99.26245398</v>
+        <v>99.30613137</v>
       </c>
       <c r="E115" t="n">
-        <v>101.49364926</v>
+        <v>100.12519339</v>
       </c>
       <c r="F115" t="n">
-        <v>96.45102125</v>
+        <v>94.3279225</v>
       </c>
       <c r="G115" t="n">
-        <v>98.82858207</v>
+        <v>98.32501716</v>
       </c>
       <c r="H115" t="n">
-        <v>101.79764583</v>
+        <v>101.24321058</v>
       </c>
       <c r="I115" t="n">
-        <v>97.65720349</v>
+        <v>97.6839386</v>
       </c>
       <c r="J115" t="n">
-        <v>99.33330237</v>
+        <v>98.90552096</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>97.79779488</v>
+        <v>97.33951743999999</v>
       </c>
       <c r="C116" t="n">
-        <v>100.90917407</v>
+        <v>100.68357693</v>
       </c>
       <c r="D116" t="n">
-        <v>99.03572613</v>
+        <v>99.31562400999999</v>
       </c>
       <c r="E116" t="n">
-        <v>100.89904462</v>
+        <v>99.61924245</v>
       </c>
       <c r="F116" t="n">
-        <v>95.96335899</v>
+        <v>94.20092895000001</v>
       </c>
       <c r="G116" t="n">
-        <v>98.49719435999999</v>
+        <v>98.19428937000001</v>
       </c>
       <c r="H116" t="n">
-        <v>101.6237933</v>
+        <v>101.23548015</v>
       </c>
       <c r="I116" t="n">
-        <v>97.69717297</v>
+        <v>97.63471645</v>
       </c>
       <c r="J116" t="n">
-        <v>98.66631331000001</v>
+        <v>98.82049222000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>97.72584125</v>
+        <v>97.13162483000001</v>
       </c>
       <c r="C117" t="n">
-        <v>100.86236978</v>
+        <v>100.86935153</v>
       </c>
       <c r="D117" t="n">
-        <v>99.24570703000001</v>
+        <v>99.13902333</v>
       </c>
       <c r="E117" t="n">
-        <v>100.50470881</v>
+        <v>99.28952738</v>
       </c>
       <c r="F117" t="n">
-        <v>95.23040068</v>
+        <v>94.64317620999999</v>
       </c>
       <c r="G117" t="n">
-        <v>98.62865505000001</v>
+        <v>98.79569771</v>
       </c>
       <c r="H117" t="n">
-        <v>101.40127924</v>
+        <v>101.2951943</v>
       </c>
       <c r="I117" t="n">
-        <v>97.74089057</v>
+        <v>97.80963385</v>
       </c>
       <c r="J117" t="n">
-        <v>99.35212505</v>
+        <v>100.53339724</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>97.630737</v>
+        <v>97.35275115</v>
       </c>
       <c r="C118" t="n">
-        <v>100.89630861</v>
+        <v>101.07038971</v>
       </c>
       <c r="D118" t="n">
-        <v>99.30613137</v>
+        <v>99.11848867</v>
       </c>
       <c r="E118" t="n">
-        <v>100.12519339</v>
+        <v>99.07610097</v>
       </c>
       <c r="F118" t="n">
-        <v>94.3279225</v>
+        <v>94.98842019999999</v>
       </c>
       <c r="G118" t="n">
-        <v>98.32501716</v>
+        <v>99.2116802</v>
       </c>
       <c r="H118" t="n">
-        <v>101.24321058</v>
+        <v>101.31029948</v>
       </c>
       <c r="I118" t="n">
-        <v>97.6839386</v>
+        <v>98.18668618</v>
       </c>
       <c r="J118" t="n">
-        <v>98.90552096</v>
+        <v>101.47479982</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>97.33951743999999</v>
+        <v>97.31419559</v>
       </c>
       <c r="C119" t="n">
-        <v>100.68357693</v>
+        <v>101.19531616</v>
       </c>
       <c r="D119" t="n">
-        <v>99.31562400999999</v>
+        <v>99.26904838</v>
       </c>
       <c r="E119" t="n">
-        <v>99.61924245</v>
+        <v>98.75433823</v>
       </c>
       <c r="F119" t="n">
-        <v>94.20092895000001</v>
+        <v>96.18638977000001</v>
       </c>
       <c r="G119" t="n">
-        <v>98.19428937000001</v>
+        <v>99.47213175</v>
       </c>
       <c r="H119" t="n">
-        <v>101.23548015</v>
+        <v>101.26777359</v>
       </c>
       <c r="I119" t="n">
-        <v>97.63471645</v>
+        <v>98.36014982</v>
       </c>
       <c r="J119" t="n">
-        <v>98.82049222000001</v>
+        <v>101.58218104</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>97.13162483000001</v>
+        <v>97.82547251</v>
       </c>
       <c r="C120" t="n">
-        <v>100.86935153</v>
+        <v>101.64075797</v>
       </c>
       <c r="D120" t="n">
-        <v>99.13902333</v>
+        <v>99.40550922</v>
       </c>
       <c r="E120" t="n">
-        <v>99.28952738</v>
+        <v>98.89683726</v>
       </c>
       <c r="F120" t="n">
-        <v>94.64317620999999</v>
+        <v>98.77981917</v>
       </c>
       <c r="G120" t="n">
-        <v>98.79569771</v>
+        <v>100.55833934</v>
       </c>
       <c r="H120" t="n">
-        <v>101.2951943</v>
+        <v>101.28994542</v>
       </c>
       <c r="I120" t="n">
-        <v>97.80963385</v>
+        <v>98.80264649</v>
       </c>
       <c r="J120" t="n">
-        <v>100.53339724</v>
+        <v>103.159762</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>97.35275115</v>
+        <v>98.54324544000001</v>
       </c>
       <c r="C121" t="n">
-        <v>101.07038971</v>
+        <v>102.18460803</v>
       </c>
       <c r="D121" t="n">
-        <v>99.11848867</v>
+        <v>99.73051384</v>
       </c>
       <c r="E121" t="n">
-        <v>99.07610097</v>
+        <v>98.94270679</v>
       </c>
       <c r="F121" t="n">
-        <v>94.98842019999999</v>
+        <v>101.46005191</v>
       </c>
       <c r="G121" t="n">
-        <v>99.2116802</v>
+        <v>101.85590353</v>
       </c>
       <c r="H121" t="n">
-        <v>101.31029948</v>
+        <v>101.35006049</v>
       </c>
       <c r="I121" t="n">
-        <v>98.18668618</v>
+        <v>99.20396223</v>
       </c>
       <c r="J121" t="n">
-        <v>101.47479982</v>
+        <v>105.31175789</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>99.5091212</v>
+        <v>99.48061373</v>
       </c>
       <c r="C122" t="n">
-        <v>103.69810711</v>
+        <v>102.3393444</v>
       </c>
       <c r="D122" t="n">
-        <v>100.87078474</v>
+        <v>98.76195082</v>
       </c>
       <c r="E122" t="n">
-        <v>100.46873891</v>
+        <v>98.90513205000001</v>
       </c>
       <c r="F122" t="n">
-        <v>104.85405013</v>
+        <v>102.5176755</v>
       </c>
       <c r="G122" t="n">
-        <v>104.36552963</v>
+        <v>101.53040923</v>
       </c>
       <c r="H122" t="n">
-        <v>101.48618483</v>
+        <v>101.52708434</v>
       </c>
       <c r="I122" t="n">
-        <v>98.68267346</v>
+        <v>99.59925891</v>
       </c>
       <c r="J122" t="n">
-        <v>110.06222485</v>
+        <v>103.71958616</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>99.33819994</v>
+        <v>100.1445511</v>
       </c>
       <c r="C123" t="n">
-        <v>104.04079187</v>
+        <v>102.4439722</v>
       </c>
       <c r="D123" t="n">
-        <v>100.63198728</v>
+        <v>100.78336274</v>
       </c>
       <c r="E123" t="n">
-        <v>100.74157733</v>
+        <v>99.22639762</v>
       </c>
       <c r="F123" t="n">
-        <v>105.84483886</v>
+        <v>102.99199271</v>
       </c>
       <c r="G123" t="n">
-        <v>105.11923539</v>
+        <v>102.69534568</v>
       </c>
       <c r="H123" t="n">
-        <v>101.61578759</v>
+        <v>101.58692525</v>
       </c>
       <c r="I123" t="n">
-        <v>99.3404515</v>
+        <v>98.65883940000001</v>
       </c>
       <c r="J123" t="n">
-        <v>111.69507069</v>
+        <v>106.23653547</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>99.34377458</v>
+        <v>100.02131879</v>
       </c>
       <c r="C124" t="n">
-        <v>103.96568787</v>
+        <v>102.52405368</v>
       </c>
       <c r="D124" t="n">
-        <v>100.70975723</v>
+        <v>100.26131297</v>
       </c>
       <c r="E124" t="n">
-        <v>101.15567443</v>
+        <v>99.26442768</v>
       </c>
       <c r="F124" t="n">
-        <v>106.02119628</v>
+        <v>103.2861942</v>
       </c>
       <c r="G124" t="n">
-        <v>104.58590192</v>
+        <v>102.37066042</v>
       </c>
       <c r="H124" t="n">
-        <v>101.79938956</v>
+        <v>101.70277502</v>
       </c>
       <c r="I124" t="n">
-        <v>100.051</v>
+        <v>98.89681908999999</v>
       </c>
       <c r="J124" t="n">
-        <v>109.55246162</v>
+        <v>105.24090517</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>99.48061373</v>
+        <v>99.98012471</v>
       </c>
       <c r="C125" t="n">
-        <v>102.3393444</v>
+        <v>102.78200692</v>
       </c>
       <c r="D125" t="n">
-        <v>98.76195082</v>
+        <v>100.43034951</v>
       </c>
       <c r="E125" t="n">
-        <v>98.90513205000001</v>
+        <v>99.49802711</v>
       </c>
       <c r="F125" t="n">
-        <v>102.5176755</v>
+        <v>104.4735092</v>
       </c>
       <c r="G125" t="n">
-        <v>101.53040923</v>
+        <v>102.81362148</v>
       </c>
       <c r="H125" t="n">
-        <v>101.52708434</v>
+        <v>101.67984653</v>
       </c>
       <c r="I125" t="n">
-        <v>99.59925891</v>
+        <v>98.73688549000001</v>
       </c>
       <c r="J125" t="n">
-        <v>103.71958616</v>
+        <v>105.9473445</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>100.1445511</v>
+        <v>100.13917811</v>
       </c>
       <c r="C126" t="n">
-        <v>102.4439722</v>
+        <v>103.16648727</v>
       </c>
       <c r="D126" t="n">
-        <v>100.78336274</v>
+        <v>100.62487037</v>
       </c>
       <c r="E126" t="n">
-        <v>99.22639762</v>
+        <v>99.66571599</v>
       </c>
       <c r="F126" t="n">
-        <v>102.99199271</v>
+        <v>105.01623705</v>
       </c>
       <c r="G126" t="n">
-        <v>102.69534568</v>
+        <v>103.06132005</v>
       </c>
       <c r="H126" t="n">
-        <v>101.58692525</v>
+        <v>101.73637724</v>
       </c>
       <c r="I126" t="n">
-        <v>98.65883940000001</v>
+        <v>98.81394732</v>
       </c>
       <c r="J126" t="n">
-        <v>106.23653547</v>
+        <v>106.06743346</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>100.02131879</v>
+        <v>99.73975752</v>
       </c>
       <c r="C127" t="n">
-        <v>102.52405368</v>
+        <v>103.23665288</v>
       </c>
       <c r="D127" t="n">
-        <v>100.26131297</v>
+        <v>100.92883439</v>
       </c>
       <c r="E127" t="n">
-        <v>99.26442768</v>
+        <v>99.96524128</v>
       </c>
       <c r="F127" t="n">
-        <v>103.2861942</v>
+        <v>105.01142905</v>
       </c>
       <c r="G127" t="n">
-        <v>102.37066042</v>
+        <v>102.94992814</v>
       </c>
       <c r="H127" t="n">
-        <v>101.70277502</v>
+        <v>101.74763022</v>
       </c>
       <c r="I127" t="n">
-        <v>98.89681908999999</v>
+        <v>98.96054334999999</v>
       </c>
       <c r="J127" t="n">
-        <v>105.24090517</v>
+        <v>105.70363879</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>99.98012471</v>
+        <v>99.33520504000001</v>
       </c>
       <c r="C128" t="n">
-        <v>102.78200692</v>
+        <v>103.31161847</v>
       </c>
       <c r="D128" t="n">
-        <v>100.43034951</v>
+        <v>101.12245758</v>
       </c>
       <c r="E128" t="n">
-        <v>99.49802711</v>
+        <v>100.21290423</v>
       </c>
       <c r="F128" t="n">
-        <v>104.4735092</v>
+        <v>104.75852618</v>
       </c>
       <c r="G128" t="n">
-        <v>102.81362148</v>
+        <v>103.30418661</v>
       </c>
       <c r="H128" t="n">
-        <v>101.67984653</v>
+        <v>101.64687389</v>
       </c>
       <c r="I128" t="n">
-        <v>98.73688549000001</v>
+        <v>99.17338488</v>
       </c>
       <c r="J128" t="n">
-        <v>105.9473445</v>
+        <v>106.8273508</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>100.13917811</v>
+        <v>99.44876707</v>
       </c>
       <c r="C129" t="n">
-        <v>103.16648727</v>
+        <v>103.28828942</v>
       </c>
       <c r="D129" t="n">
-        <v>100.62487037</v>
+        <v>101.17725392</v>
       </c>
       <c r="E129" t="n">
-        <v>99.66571599</v>
+        <v>100.39819721</v>
       </c>
       <c r="F129" t="n">
-        <v>105.01623705</v>
+        <v>104.42361755</v>
       </c>
       <c r="G129" t="n">
-        <v>103.06132005</v>
+        <v>103.47941491</v>
       </c>
       <c r="H129" t="n">
-        <v>101.73637724</v>
+        <v>101.50051909</v>
       </c>
       <c r="I129" t="n">
-        <v>98.81394732</v>
+        <v>98.8104757</v>
       </c>
       <c r="J129" t="n">
-        <v>106.06743346</v>
+        <v>107.49903921</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>99.73975752</v>
+        <v>99.30921544</v>
       </c>
       <c r="C130" t="n">
-        <v>103.23665288</v>
+        <v>103.37248988</v>
       </c>
       <c r="D130" t="n">
-        <v>100.92883439</v>
+        <v>101.19318511</v>
       </c>
       <c r="E130" t="n">
-        <v>99.96524128</v>
+        <v>100.36327554</v>
       </c>
       <c r="F130" t="n">
-        <v>105.01142905</v>
+        <v>104.33027951</v>
       </c>
       <c r="G130" t="n">
-        <v>102.94992814</v>
+        <v>103.60556157</v>
       </c>
       <c r="H130" t="n">
-        <v>101.74763022</v>
+        <v>101.35793687</v>
       </c>
       <c r="I130" t="n">
-        <v>98.96054334999999</v>
+        <v>98.51707286</v>
       </c>
       <c r="J130" t="n">
-        <v>105.70363879</v>
+        <v>108.04903454</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>99.33520504000001</v>
+        <v>99.5091212</v>
       </c>
       <c r="C131" t="n">
-        <v>103.31161847</v>
+        <v>103.69810711</v>
       </c>
       <c r="D131" t="n">
-        <v>101.12245758</v>
+        <v>100.87078474</v>
       </c>
       <c r="E131" t="n">
-        <v>100.21290423</v>
+        <v>100.46873891</v>
       </c>
       <c r="F131" t="n">
-        <v>104.75852618</v>
+        <v>104.85405013</v>
       </c>
       <c r="G131" t="n">
-        <v>103.30418661</v>
+        <v>104.36552963</v>
       </c>
       <c r="H131" t="n">
-        <v>101.64687389</v>
+        <v>101.48618483</v>
       </c>
       <c r="I131" t="n">
-        <v>99.17338488</v>
+        <v>98.68267346</v>
       </c>
       <c r="J131" t="n">
-        <v>106.8273508</v>
+        <v>110.06222485</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>99.44876707</v>
+        <v>99.33819994</v>
       </c>
       <c r="C132" t="n">
-        <v>103.28828942</v>
+        <v>104.04079187</v>
       </c>
       <c r="D132" t="n">
-        <v>101.17725392</v>
+        <v>100.63198728</v>
       </c>
       <c r="E132" t="n">
-        <v>100.39819721</v>
+        <v>100.74157733</v>
       </c>
       <c r="F132" t="n">
-        <v>104.42361755</v>
+        <v>105.84483886</v>
       </c>
       <c r="G132" t="n">
-        <v>103.47941491</v>
+        <v>105.11923539</v>
       </c>
       <c r="H132" t="n">
-        <v>101.50051909</v>
+        <v>101.61578759</v>
       </c>
       <c r="I132" t="n">
-        <v>98.8104757</v>
+        <v>99.3404515</v>
       </c>
       <c r="J132" t="n">
-        <v>107.49903921</v>
+        <v>111.69507069</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>99.30921544</v>
+        <v>99.34377458</v>
       </c>
       <c r="C133" t="n">
-        <v>103.37248988</v>
+        <v>103.96568787</v>
       </c>
       <c r="D133" t="n">
-        <v>101.19318511</v>
+        <v>100.70975723</v>
       </c>
       <c r="E133" t="n">
-        <v>100.36327554</v>
+        <v>101.15567443</v>
       </c>
       <c r="F133" t="n">
-        <v>104.33027951</v>
+        <v>106.02119628</v>
       </c>
       <c r="G133" t="n">
-        <v>103.60556157</v>
+        <v>104.58590192</v>
       </c>
       <c r="H133" t="n">
-        <v>101.35793687</v>
+        <v>101.79938956</v>
       </c>
       <c r="I133" t="n">
-        <v>98.51707286</v>
+        <v>100.051</v>
       </c>
       <c r="J133" t="n">
-        <v>108.04903454</v>
+        <v>109.55246162</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>100.75454246</v>
+        <v>99.86257395</v>
       </c>
       <c r="C134" t="n">
-        <v>103.50165989</v>
+        <v>103.17075173</v>
       </c>
       <c r="D134" t="n">
-        <v>99.97363347</v>
+        <v>101.00332918</v>
       </c>
       <c r="E134" t="n">
-        <v>103.08649415</v>
+        <v>101.4276733</v>
       </c>
       <c r="F134" t="n">
-        <v>104.44700797</v>
+        <v>106.8470566</v>
       </c>
       <c r="G134" t="n">
-        <v>105.49535291</v>
+        <v>104.91208271</v>
       </c>
       <c r="H134" t="n">
-        <v>103.67561791</v>
+        <v>101.84920276</v>
       </c>
       <c r="I134" t="n">
-        <v>103.74048268</v>
+        <v>99.82099703</v>
       </c>
       <c r="J134" t="n">
-        <v>111.92738036</v>
+        <v>110.33719701</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>100.5282264</v>
+        <v>99.68318879</v>
       </c>
       <c r="C135" t="n">
-        <v>103.20627048</v>
+        <v>102.99264835</v>
       </c>
       <c r="D135" t="n">
-        <v>100.06445694</v>
+        <v>100.34734539</v>
       </c>
       <c r="E135" t="n">
-        <v>102.9383019</v>
+        <v>101.43876663</v>
       </c>
       <c r="F135" t="n">
-        <v>102.97652836</v>
+        <v>106.08485314</v>
       </c>
       <c r="G135" t="n">
-        <v>104.22455675</v>
+        <v>104.94429999</v>
       </c>
       <c r="H135" t="n">
-        <v>103.83418951</v>
+        <v>101.92190551</v>
       </c>
       <c r="I135" t="n">
-        <v>103.5020082</v>
+        <v>100.38430444</v>
       </c>
       <c r="J135" t="n">
-        <v>108.80226107</v>
+        <v>110.99520496</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>100.28661604</v>
+        <v>100.1</v>
       </c>
       <c r="C136" t="n">
-        <v>102.75995768</v>
+        <v>103.2</v>
       </c>
       <c r="D136" t="n">
-        <v>100.06085927</v>
+        <v>100.5</v>
       </c>
       <c r="E136" t="n">
-        <v>102.46235714</v>
+        <v>101.9</v>
       </c>
       <c r="F136" t="n">
-        <v>102.07156689</v>
+        <v>106.6</v>
       </c>
       <c r="G136" t="n">
-        <v>104.07036725</v>
+        <v>105.383</v>
       </c>
       <c r="H136" t="n">
-        <v>103.86545187</v>
+        <v>102.1</v>
       </c>
       <c r="I136" t="n">
-        <v>103.80893661</v>
+        <v>100.8</v>
       </c>
       <c r="J136" t="n">
-        <v>109.05546372</v>
+        <v>111.7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>99.86257395</v>
+        <v>100.5</v>
       </c>
       <c r="C137" t="n">
-        <v>103.17075173</v>
+        <v>103.2</v>
       </c>
       <c r="D137" t="n">
-        <v>101.00332918</v>
+        <v>100.5</v>
       </c>
       <c r="E137" t="n">
-        <v>101.4276733</v>
+        <v>102.1</v>
       </c>
       <c r="F137" t="n">
-        <v>106.8470566</v>
+        <v>106.1</v>
       </c>
       <c r="G137" t="n">
-        <v>104.91208271</v>
+        <v>105.3442</v>
       </c>
       <c r="H137" t="n">
-        <v>101.84920276</v>
+        <v>102.4</v>
       </c>
       <c r="I137" t="n">
-        <v>99.82099703</v>
+        <v>101.4</v>
       </c>
       <c r="J137" t="n">
-        <v>110.33719701</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>99.68318879</v>
+        <v>100.7</v>
       </c>
       <c r="C138" t="n">
-        <v>102.99264835</v>
+        <v>103.2</v>
       </c>
       <c r="D138" t="n">
-        <v>100.34734539</v>
+        <v>100.6</v>
       </c>
       <c r="E138" t="n">
-        <v>101.43876663</v>
+        <v>102.5</v>
       </c>
       <c r="F138" t="n">
-        <v>106.08485314</v>
+        <v>106.1</v>
       </c>
       <c r="G138" t="n">
-        <v>104.94429999</v>
+        <v>105.5146</v>
       </c>
       <c r="H138" t="n">
-        <v>101.92190551</v>
+        <v>102.6</v>
       </c>
       <c r="I138" t="n">
-        <v>100.38430444</v>
+        <v>101.8</v>
       </c>
       <c r="J138" t="n">
-        <v>110.99520496</v>
+        <v>111.7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>100.1</v>
+        <v>100.9</v>
       </c>
       <c r="C139" t="n">
-        <v>103.2</v>
+        <v>103.4</v>
       </c>
       <c r="D139" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="E139" t="n">
-        <v>101.9</v>
+        <v>102.5</v>
       </c>
       <c r="F139" t="n">
-        <v>106.6</v>
+        <v>106.2</v>
       </c>
       <c r="G139" t="n">
-        <v>105.383</v>
+        <v>106.3553</v>
       </c>
       <c r="H139" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="I139" t="n">
         <v>102.1</v>
       </c>
-      <c r="I139" t="n">
-        <v>100.8</v>
-      </c>
       <c r="J139" t="n">
-        <v>111.7</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>100.5</v>
+        <v>100.86369514</v>
       </c>
       <c r="C140" t="n">
-        <v>103.2</v>
+        <v>103.62049696</v>
       </c>
       <c r="D140" t="n">
-        <v>100.5</v>
+        <v>100.48581779</v>
       </c>
       <c r="E140" t="n">
-        <v>102.1</v>
+        <v>102.69384312</v>
       </c>
       <c r="F140" t="n">
-        <v>106.1</v>
+        <v>105.85458014</v>
       </c>
       <c r="G140" t="n">
-        <v>105.3442</v>
+        <v>106.45080407</v>
       </c>
       <c r="H140" t="n">
-        <v>102.4</v>
+        <v>102.82575318</v>
       </c>
       <c r="I140" t="n">
-        <v>101.4</v>
+        <v>102.24916046</v>
       </c>
       <c r="J140" t="n">
-        <v>111.5</v>
+        <v>114.76253032</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>100.7</v>
+        <v>100.99946499</v>
       </c>
       <c r="C141" t="n">
-        <v>103.2</v>
+        <v>104.12774505</v>
       </c>
       <c r="D141" t="n">
-        <v>100.6</v>
+        <v>100.39161557</v>
       </c>
       <c r="E141" t="n">
-        <v>102.5</v>
+        <v>102.80145868</v>
       </c>
       <c r="F141" t="n">
-        <v>106.1</v>
+        <v>105.47518569</v>
       </c>
       <c r="G141" t="n">
-        <v>105.5146</v>
+        <v>106.15143714</v>
       </c>
       <c r="H141" t="n">
-        <v>102.6</v>
+        <v>102.86262516</v>
       </c>
       <c r="I141" t="n">
-        <v>101.8</v>
+        <v>102.90183583</v>
       </c>
       <c r="J141" t="n">
-        <v>111.7</v>
+        <v>113.38761041</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>100.9</v>
+        <v>100.9840626</v>
       </c>
       <c r="C142" t="n">
-        <v>103.4</v>
+        <v>104.10383054</v>
       </c>
       <c r="D142" t="n">
-        <v>100.6</v>
+        <v>99.95293042999999</v>
       </c>
       <c r="E142" t="n">
-        <v>102.5</v>
+        <v>102.99987258</v>
       </c>
       <c r="F142" t="n">
-        <v>106.2</v>
+        <v>105.07874023</v>
       </c>
       <c r="G142" t="n">
-        <v>106.3553</v>
+        <v>106.06709979</v>
       </c>
       <c r="H142" t="n">
-        <v>102.7</v>
+        <v>103.36520329</v>
       </c>
       <c r="I142" t="n">
-        <v>102.1</v>
+        <v>103.17724398</v>
       </c>
       <c r="J142" t="n">
-        <v>114.4</v>
+        <v>113.41902915</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>100.86369514</v>
+        <v>100.75454246</v>
       </c>
       <c r="C143" t="n">
-        <v>103.62049696</v>
+        <v>103.50165989</v>
       </c>
       <c r="D143" t="n">
-        <v>100.48581779</v>
+        <v>99.97363347</v>
       </c>
       <c r="E143" t="n">
-        <v>102.69384312</v>
+        <v>103.08649415</v>
       </c>
       <c r="F143" t="n">
-        <v>105.85458014</v>
+        <v>104.44700797</v>
       </c>
       <c r="G143" t="n">
-        <v>106.45080407</v>
+        <v>105.49535291</v>
       </c>
       <c r="H143" t="n">
-        <v>102.82575318</v>
+        <v>103.67561791</v>
       </c>
       <c r="I143" t="n">
-        <v>102.24916046</v>
+        <v>103.74048268</v>
       </c>
       <c r="J143" t="n">
-        <v>114.76253032</v>
+        <v>111.92738036</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>100.99946499</v>
+        <v>100.5282264</v>
       </c>
       <c r="C144" t="n">
-        <v>104.12774505</v>
+        <v>103.20627048</v>
       </c>
       <c r="D144" t="n">
-        <v>100.39161557</v>
+        <v>100.06445694</v>
       </c>
       <c r="E144" t="n">
-        <v>102.80145868</v>
+        <v>102.9383019</v>
       </c>
       <c r="F144" t="n">
-        <v>105.47518569</v>
+        <v>102.97652836</v>
       </c>
       <c r="G144" t="n">
-        <v>106.15143714</v>
+        <v>104.22455675</v>
       </c>
       <c r="H144" t="n">
-        <v>102.86262516</v>
+        <v>103.83418951</v>
       </c>
       <c r="I144" t="n">
-        <v>102.90183583</v>
+        <v>103.5020082</v>
       </c>
       <c r="J144" t="n">
-        <v>113.38761041</v>
+        <v>108.80226107</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>100.9840626</v>
+        <v>100.28661604</v>
       </c>
       <c r="C145" t="n">
-        <v>104.10383054</v>
+        <v>102.75995768</v>
       </c>
       <c r="D145" t="n">
-        <v>99.95293042999999</v>
+        <v>100.06085927</v>
       </c>
       <c r="E145" t="n">
-        <v>102.99987258</v>
+        <v>102.46235714</v>
       </c>
       <c r="F145" t="n">
-        <v>105.07874023</v>
+        <v>102.07156689</v>
       </c>
       <c r="G145" t="n">
-        <v>106.06709979</v>
+        <v>104.07036725</v>
       </c>
       <c r="H145" t="n">
-        <v>103.36520329</v>
+        <v>103.86545187</v>
       </c>
       <c r="I145" t="n">
-        <v>103.17724398</v>
+        <v>103.80893661</v>
       </c>
       <c r="J145" t="n">
-        <v>113.41902915</v>
+        <v>109.05546372</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>100.1483047</v>
+        <v>100.18628412</v>
       </c>
       <c r="C146" t="n">
-        <v>101.76832665</v>
+        <v>102.6059321</v>
       </c>
       <c r="D146" t="n">
-        <v>101.07015748</v>
+        <v>100.68770299</v>
       </c>
       <c r="E146" t="n">
-        <v>101.53289481</v>
+        <v>102.5631308</v>
       </c>
       <c r="F146" t="n">
-        <v>102.46505005</v>
+        <v>101.94942625</v>
       </c>
       <c r="G146" t="n">
-        <v>101.72442493</v>
+        <v>104.54848025</v>
       </c>
       <c r="H146" t="n">
-        <v>101.97427388</v>
+        <v>103.70897941</v>
       </c>
       <c r="I146" t="n">
-        <v>102.73035732</v>
+        <v>103.33799301</v>
       </c>
       <c r="J146" t="n">
-        <v>101.78397049</v>
+        <v>110.50777282</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>100.03976</v>
+        <v>100.09851864</v>
       </c>
       <c r="C147" t="n">
-        <v>101.6075261</v>
+        <v>102.69128666</v>
       </c>
       <c r="D147" t="n">
-        <v>100.93481927</v>
+        <v>99.57544436000001</v>
       </c>
       <c r="E147" t="n">
-        <v>101.5095505</v>
+        <v>102.51514113</v>
       </c>
       <c r="F147" t="n">
-        <v>102.60264552</v>
+        <v>102.08918328</v>
       </c>
       <c r="G147" t="n">
-        <v>102.03692501</v>
+        <v>103.16134872</v>
       </c>
       <c r="H147" t="n">
-        <v>101.70478638</v>
+        <v>103.71371244</v>
       </c>
       <c r="I147" t="n">
-        <v>102.27444386</v>
+        <v>103.80917727</v>
       </c>
       <c r="J147" t="n">
-        <v>102.95698185</v>
+        <v>106.19858927</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>99.99526209</v>
+        <v>100.26848535</v>
       </c>
       <c r="C148" t="n">
-        <v>101.74251038</v>
+        <v>102.53654914</v>
       </c>
       <c r="D148" t="n">
-        <v>101.07413333</v>
+        <v>100.08753057</v>
       </c>
       <c r="E148" t="n">
-        <v>101.65058213</v>
+        <v>102.20663248</v>
       </c>
       <c r="F148" t="n">
-        <v>102.982706</v>
+        <v>101.98885527</v>
       </c>
       <c r="G148" t="n">
-        <v>102.5226433</v>
+        <v>103.58556579</v>
       </c>
       <c r="H148" t="n">
-        <v>101.51744599</v>
+        <v>103.56343762</v>
       </c>
       <c r="I148" t="n">
-        <v>101.89393053</v>
+        <v>103.75618516</v>
       </c>
       <c r="J148" t="n">
-        <v>104.24792955</v>
+        <v>107.49538462</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>100.18628412</v>
+        <v>100.28323213</v>
       </c>
       <c r="C149" t="n">
-        <v>102.6059321</v>
+        <v>102.47803824</v>
       </c>
       <c r="D149" t="n">
-        <v>100.68770299</v>
+        <v>100.3219262</v>
       </c>
       <c r="E149" t="n">
-        <v>102.5631308</v>
+        <v>102.15125652</v>
       </c>
       <c r="F149" t="n">
-        <v>101.94942625</v>
+        <v>101.77724823</v>
       </c>
       <c r="G149" t="n">
-        <v>104.54848025</v>
+        <v>103.36525516</v>
       </c>
       <c r="H149" t="n">
-        <v>103.70897941</v>
+        <v>103.43489677</v>
       </c>
       <c r="I149" t="n">
-        <v>103.33799301</v>
+        <v>103.58384213</v>
       </c>
       <c r="J149" t="n">
-        <v>110.50777282</v>
+        <v>106.95201768</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>100.09851864</v>
+        <v>99.88713065</v>
       </c>
       <c r="C150" t="n">
-        <v>102.69128666</v>
+        <v>102.12910511</v>
       </c>
       <c r="D150" t="n">
-        <v>99.57544436000001</v>
+        <v>100.22084474</v>
       </c>
       <c r="E150" t="n">
-        <v>102.51514113</v>
+        <v>101.94088072</v>
       </c>
       <c r="F150" t="n">
-        <v>102.08918328</v>
+        <v>101.55698942</v>
       </c>
       <c r="G150" t="n">
-        <v>103.16134872</v>
+        <v>103.00079043</v>
       </c>
       <c r="H150" t="n">
-        <v>103.71371244</v>
+        <v>103.27690405</v>
       </c>
       <c r="I150" t="n">
-        <v>103.80917727</v>
+        <v>103.11845931</v>
       </c>
       <c r="J150" t="n">
-        <v>106.19858927</v>
+        <v>106.40211754</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>100.26848535</v>
+        <v>99.56604541999999</v>
       </c>
       <c r="C151" t="n">
-        <v>102.53654914</v>
+        <v>101.93722272</v>
       </c>
       <c r="D151" t="n">
-        <v>100.08753057</v>
+        <v>100.26219714</v>
       </c>
       <c r="E151" t="n">
-        <v>102.20663248</v>
+        <v>101.88266857</v>
       </c>
       <c r="F151" t="n">
-        <v>101.98885527</v>
+        <v>101.64882702</v>
       </c>
       <c r="G151" t="n">
-        <v>103.58556579</v>
+        <v>102.15035342</v>
       </c>
       <c r="H151" t="n">
-        <v>103.56343762</v>
+        <v>103.20400147</v>
       </c>
       <c r="I151" t="n">
-        <v>103.75618516</v>
+        <v>103.26372525</v>
       </c>
       <c r="J151" t="n">
-        <v>107.49538462</v>
+        <v>103.76577816</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>100.28323213</v>
+        <v>99.14826723</v>
       </c>
       <c r="C152" t="n">
-        <v>102.47803824</v>
+        <v>101.76668405</v>
       </c>
       <c r="D152" t="n">
-        <v>100.3219262</v>
+        <v>100.43942145</v>
       </c>
       <c r="E152" t="n">
-        <v>102.15125652</v>
+        <v>101.91334552</v>
       </c>
       <c r="F152" t="n">
-        <v>101.77724823</v>
+        <v>102.12070053</v>
       </c>
       <c r="G152" t="n">
-        <v>103.36525516</v>
+        <v>101.77901987</v>
       </c>
       <c r="H152" t="n">
-        <v>103.43489677</v>
+        <v>103.05138287</v>
       </c>
       <c r="I152" t="n">
-        <v>103.58384213</v>
+        <v>103.30457465</v>
       </c>
       <c r="J152" t="n">
-        <v>106.95201768</v>
+        <v>102.43381493</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>99.88713065</v>
+        <v>99.21676626999999</v>
       </c>
       <c r="C153" t="n">
-        <v>102.12910511</v>
+        <v>101.33679393</v>
       </c>
       <c r="D153" t="n">
-        <v>100.22084474</v>
+        <v>100.42544878</v>
       </c>
       <c r="E153" t="n">
-        <v>101.94088072</v>
+        <v>101.75199624</v>
       </c>
       <c r="F153" t="n">
-        <v>101.55698942</v>
+        <v>102.23134669</v>
       </c>
       <c r="G153" t="n">
-        <v>103.00079043</v>
+        <v>102.04498381</v>
       </c>
       <c r="H153" t="n">
-        <v>103.27690405</v>
+        <v>102.95827319</v>
       </c>
       <c r="I153" t="n">
-        <v>103.11845931</v>
+        <v>103.14086222</v>
       </c>
       <c r="J153" t="n">
-        <v>106.40211754</v>
+        <v>103.37836143</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>99.56604541999999</v>
+        <v>99.75016325</v>
       </c>
       <c r="C154" t="n">
-        <v>101.93722272</v>
+        <v>101.44500504</v>
       </c>
       <c r="D154" t="n">
-        <v>100.26219714</v>
+        <v>101.04613362</v>
       </c>
       <c r="E154" t="n">
-        <v>101.88266857</v>
+        <v>101.63840337</v>
       </c>
       <c r="F154" t="n">
-        <v>101.64882702</v>
+        <v>102.32863919</v>
       </c>
       <c r="G154" t="n">
-        <v>102.15035342</v>
+        <v>101.91260304</v>
       </c>
       <c r="H154" t="n">
-        <v>103.20400147</v>
+        <v>102.37691988</v>
       </c>
       <c r="I154" t="n">
-        <v>103.26372525</v>
+        <v>103.41616053</v>
       </c>
       <c r="J154" t="n">
-        <v>103.76577816</v>
+        <v>102.45537584</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>99.14826723</v>
+        <v>100.1483047</v>
       </c>
       <c r="C155" t="n">
-        <v>101.76668405</v>
+        <v>101.76832665</v>
       </c>
       <c r="D155" t="n">
-        <v>100.43942145</v>
+        <v>101.07015748</v>
       </c>
       <c r="E155" t="n">
-        <v>101.91334552</v>
+        <v>101.53289481</v>
       </c>
       <c r="F155" t="n">
-        <v>102.12070053</v>
+        <v>102.46505005</v>
       </c>
       <c r="G155" t="n">
-        <v>101.77901987</v>
+        <v>101.72442493</v>
       </c>
       <c r="H155" t="n">
-        <v>103.05138287</v>
+        <v>101.97427388</v>
       </c>
       <c r="I155" t="n">
-        <v>103.30457465</v>
+        <v>102.73035732</v>
       </c>
       <c r="J155" t="n">
-        <v>102.43381493</v>
+        <v>101.78397049</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>99.21676626999999</v>
+        <v>100.03976</v>
       </c>
       <c r="C156" t="n">
-        <v>101.33679393</v>
+        <v>101.6075261</v>
       </c>
       <c r="D156" t="n">
-        <v>100.42544878</v>
+        <v>100.93481927</v>
       </c>
       <c r="E156" t="n">
-        <v>101.75199624</v>
+        <v>101.5095505</v>
       </c>
       <c r="F156" t="n">
-        <v>102.23134669</v>
+        <v>102.60264552</v>
       </c>
       <c r="G156" t="n">
-        <v>102.04498381</v>
+        <v>102.03692501</v>
       </c>
       <c r="H156" t="n">
-        <v>102.95827319</v>
+        <v>101.70478638</v>
       </c>
       <c r="I156" t="n">
-        <v>103.14086222</v>
+        <v>102.27444386</v>
       </c>
       <c r="J156" t="n">
-        <v>103.37836143</v>
+        <v>102.95698185</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>99.75016325</v>
+        <v>99.99526209</v>
       </c>
       <c r="C157" t="n">
-        <v>101.44500504</v>
+        <v>101.74251038</v>
       </c>
       <c r="D157" t="n">
-        <v>101.04613362</v>
+        <v>101.07413333</v>
       </c>
       <c r="E157" t="n">
-        <v>101.63840337</v>
+        <v>101.65058213</v>
       </c>
       <c r="F157" t="n">
-        <v>102.32863919</v>
+        <v>102.982706</v>
       </c>
       <c r="G157" t="n">
-        <v>101.91260304</v>
+        <v>102.5226433</v>
       </c>
       <c r="H157" t="n">
-        <v>102.37691988</v>
+        <v>101.51744599</v>
       </c>
       <c r="I157" t="n">
-        <v>103.41616053</v>
+        <v>101.89393053</v>
       </c>
       <c r="J157" t="n">
-        <v>102.45537584</v>
+        <v>104.24792955</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>99.38900301</v>
+        <v>99.73829387000001</v>
       </c>
       <c r="C158" t="n">
-        <v>100.9730699</v>
+        <v>101.75605732</v>
       </c>
       <c r="D158" t="n">
-        <v>102.48665149</v>
+        <v>100.52133422</v>
       </c>
       <c r="E158" t="n">
-        <v>101.52444826</v>
+        <v>101.49418236</v>
       </c>
       <c r="F158" t="n">
-        <v>102.59683654</v>
+        <v>102.92257234</v>
       </c>
       <c r="G158" t="n">
-        <v>103.20581593</v>
+        <v>102.03053023</v>
       </c>
       <c r="H158" t="n">
-        <v>99.78093990000001</v>
+        <v>101.40220273</v>
       </c>
       <c r="I158" t="n">
-        <v>102.40235592</v>
+        <v>102.50677161</v>
       </c>
       <c r="J158" t="n">
-        <v>106.54862744</v>
+        <v>102.88391152</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>99.46882794</v>
+        <v>100.22575503</v>
       </c>
       <c r="C159" t="n">
-        <v>100.9774528</v>
+        <v>101.78988229</v>
       </c>
       <c r="D159" t="n">
-        <v>102.82051107</v>
+        <v>101.96581436</v>
       </c>
       <c r="E159" t="n">
-        <v>101.33449299</v>
+        <v>101.58897284</v>
       </c>
       <c r="F159" t="n">
-        <v>102.62140263</v>
+        <v>102.80055286</v>
       </c>
       <c r="G159" t="n">
-        <v>103.01801617</v>
+        <v>103.21977663</v>
       </c>
       <c r="H159" t="n">
-        <v>99.77752053</v>
+        <v>101.11571642</v>
       </c>
       <c r="I159" t="n">
-        <v>101.96932488</v>
+        <v>102.14889174</v>
       </c>
       <c r="J159" t="n">
-        <v>105.94138655</v>
+        <v>105.98717266</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>99.89804435000001</v>
+        <v>99.7358988</v>
       </c>
       <c r="C160" t="n">
-        <v>100.91040847</v>
+        <v>101.68730032</v>
       </c>
       <c r="D160" t="n">
-        <v>102.86886101</v>
+        <v>101.72069097</v>
       </c>
       <c r="E160" t="n">
-        <v>101.35025854</v>
+        <v>101.62089499</v>
       </c>
       <c r="F160" t="n">
-        <v>102.77361232</v>
+        <v>102.91869208</v>
       </c>
       <c r="G160" t="n">
-        <v>102.49871692</v>
+        <v>102.06958744</v>
       </c>
       <c r="H160" t="n">
-        <v>99.58733054</v>
+        <v>100.99207128</v>
       </c>
       <c r="I160" t="n">
-        <v>102.06194666</v>
+        <v>102.28506179</v>
       </c>
       <c r="J160" t="n">
-        <v>104.05320343</v>
+        <v>102.67752386</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>99.73829387000001</v>
+        <v>98.89848463</v>
       </c>
       <c r="C161" t="n">
-        <v>101.75605732</v>
+        <v>101.49599866</v>
       </c>
       <c r="D161" t="n">
-        <v>100.52133422</v>
+        <v>101.50462762</v>
       </c>
       <c r="E161" t="n">
-        <v>101.49418236</v>
+        <v>101.57490863</v>
       </c>
       <c r="F161" t="n">
-        <v>102.92257234</v>
+        <v>102.88921057</v>
       </c>
       <c r="G161" t="n">
-        <v>102.03053023</v>
+        <v>102.38609129</v>
       </c>
       <c r="H161" t="n">
-        <v>101.40220273</v>
+        <v>100.77769597</v>
       </c>
       <c r="I161" t="n">
-        <v>102.50677161</v>
+        <v>102.48657342</v>
       </c>
       <c r="J161" t="n">
-        <v>102.88391152</v>
+        <v>104.04742827</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>100.22575503</v>
+        <v>98.81301759</v>
       </c>
       <c r="C162" t="n">
-        <v>101.78988229</v>
+        <v>101.49116996</v>
       </c>
       <c r="D162" t="n">
-        <v>101.96581436</v>
+        <v>101.31708229</v>
       </c>
       <c r="E162" t="n">
-        <v>101.58897284</v>
+        <v>101.56565619</v>
       </c>
       <c r="F162" t="n">
-        <v>102.80055286</v>
+        <v>102.99727015</v>
       </c>
       <c r="G162" t="n">
-        <v>103.21977663</v>
+        <v>102.09814943</v>
       </c>
       <c r="H162" t="n">
-        <v>101.11571642</v>
+        <v>100.48878335</v>
       </c>
       <c r="I162" t="n">
-        <v>102.14889174</v>
+        <v>102.52076507</v>
       </c>
       <c r="J162" t="n">
-        <v>105.98717266</v>
+        <v>103.22503951</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>99.7358988</v>
+        <v>99.28394393000001</v>
       </c>
       <c r="C163" t="n">
-        <v>101.68730032</v>
+        <v>101.3796536</v>
       </c>
       <c r="D163" t="n">
-        <v>101.72069097</v>
+        <v>101.35541346</v>
       </c>
       <c r="E163" t="n">
-        <v>101.62089499</v>
+        <v>101.49531565</v>
       </c>
       <c r="F163" t="n">
-        <v>102.91869208</v>
+        <v>103.07175958</v>
       </c>
       <c r="G163" t="n">
-        <v>102.06958744</v>
+        <v>102.66839244</v>
       </c>
       <c r="H163" t="n">
-        <v>100.99207128</v>
+        <v>100.26379184</v>
       </c>
       <c r="I163" t="n">
-        <v>102.28506179</v>
+        <v>102.26277798</v>
       </c>
       <c r="J163" t="n">
-        <v>102.67752386</v>
+        <v>104.92613153</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>98.89848463</v>
+        <v>99.94507064</v>
       </c>
       <c r="C164" t="n">
-        <v>101.49599866</v>
+        <v>101.21986985</v>
       </c>
       <c r="D164" t="n">
-        <v>101.50462762</v>
+        <v>101.32046304</v>
       </c>
       <c r="E164" t="n">
-        <v>101.57490863</v>
+        <v>101.38601691</v>
       </c>
       <c r="F164" t="n">
-        <v>102.88921057</v>
+        <v>102.76504618</v>
       </c>
       <c r="G164" t="n">
-        <v>102.38609129</v>
+        <v>102.67409934</v>
       </c>
       <c r="H164" t="n">
-        <v>100.77769597</v>
+        <v>100.16994282</v>
       </c>
       <c r="I164" t="n">
-        <v>102.48657342</v>
+        <v>102.18351705</v>
       </c>
       <c r="J164" t="n">
-        <v>104.04742827</v>
+        <v>105.01583473</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>98.81301759</v>
+        <v>100.04927315</v>
       </c>
       <c r="C165" t="n">
-        <v>101.49116996</v>
+        <v>101.22185102</v>
       </c>
       <c r="D165" t="n">
-        <v>101.31708229</v>
+        <v>101.22972437</v>
       </c>
       <c r="E165" t="n">
-        <v>101.56565619</v>
+        <v>101.39102081</v>
       </c>
       <c r="F165" t="n">
-        <v>102.99727015</v>
+        <v>102.62235087</v>
       </c>
       <c r="G165" t="n">
-        <v>102.09814943</v>
+        <v>102.56662298</v>
       </c>
       <c r="H165" t="n">
-        <v>100.48878335</v>
+        <v>100.03010431</v>
       </c>
       <c r="I165" t="n">
-        <v>102.52076507</v>
+        <v>102.24793013</v>
       </c>
       <c r="J165" t="n">
-        <v>103.22503951</v>
+        <v>104.72845237</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>99.28394393000001</v>
+        <v>99.82834541</v>
       </c>
       <c r="C166" t="n">
-        <v>101.3796536</v>
+        <v>101.10338004</v>
       </c>
       <c r="D166" t="n">
-        <v>101.35541346</v>
+        <v>101.91348641</v>
       </c>
       <c r="E166" t="n">
-        <v>101.49531565</v>
+        <v>101.37625785</v>
       </c>
       <c r="F166" t="n">
-        <v>103.07175958</v>
+        <v>102.62204115</v>
       </c>
       <c r="G166" t="n">
-        <v>102.66839244</v>
+        <v>103.05186303</v>
       </c>
       <c r="H166" t="n">
-        <v>100.26379184</v>
+        <v>99.83110391</v>
       </c>
       <c r="I166" t="n">
-        <v>102.26277798</v>
+        <v>102.28905072</v>
       </c>
       <c r="J166" t="n">
-        <v>104.92613153</v>
+        <v>106.09877765</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>99.94507064</v>
+        <v>99.38900301</v>
       </c>
       <c r="C167" t="n">
-        <v>101.21986985</v>
+        <v>100.9730699</v>
       </c>
       <c r="D167" t="n">
-        <v>101.32046304</v>
+        <v>102.48665149</v>
       </c>
       <c r="E167" t="n">
-        <v>101.38601691</v>
+        <v>101.52444826</v>
       </c>
       <c r="F167" t="n">
-        <v>102.76504618</v>
+        <v>102.59683654</v>
       </c>
       <c r="G167" t="n">
-        <v>102.67409934</v>
+        <v>103.20581593</v>
       </c>
       <c r="H167" t="n">
-        <v>100.16994282</v>
+        <v>99.78093990000001</v>
       </c>
       <c r="I167" t="n">
-        <v>102.18351705</v>
+        <v>102.40235592</v>
       </c>
       <c r="J167" t="n">
-        <v>105.01583473</v>
+        <v>106.54862744</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>100.04927315</v>
+        <v>99.46882794</v>
       </c>
       <c r="C168" t="n">
-        <v>101.22185102</v>
+        <v>100.9774528</v>
       </c>
       <c r="D168" t="n">
-        <v>101.22972437</v>
+        <v>102.82051107</v>
       </c>
       <c r="E168" t="n">
-        <v>101.39102081</v>
+        <v>101.33449299</v>
       </c>
       <c r="F168" t="n">
-        <v>102.62235087</v>
+        <v>102.62140263</v>
       </c>
       <c r="G168" t="n">
-        <v>102.56662298</v>
+        <v>103.01801617</v>
       </c>
       <c r="H168" t="n">
-        <v>100.03010431</v>
+        <v>99.77752053</v>
       </c>
       <c r="I168" t="n">
-        <v>102.24793013</v>
+        <v>101.96932488</v>
       </c>
       <c r="J168" t="n">
-        <v>104.72845237</v>
+        <v>105.94138655</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>99.82834541</v>
+        <v>99.89804435000001</v>
       </c>
       <c r="C169" t="n">
-        <v>101.10338004</v>
+        <v>100.91040847</v>
       </c>
       <c r="D169" t="n">
-        <v>101.91348641</v>
+        <v>102.86886101</v>
       </c>
       <c r="E169" t="n">
-        <v>101.37625785</v>
+        <v>101.35025854</v>
       </c>
       <c r="F169" t="n">
-        <v>102.62204115</v>
+        <v>102.77361232</v>
       </c>
       <c r="G169" t="n">
-        <v>103.05186303</v>
+        <v>102.49871692</v>
       </c>
       <c r="H169" t="n">
-        <v>99.83110391</v>
+        <v>99.58733054</v>
       </c>
       <c r="I169" t="n">
-        <v>102.28905072</v>
+        <v>102.06194666</v>
       </c>
       <c r="J169" t="n">
-        <v>106.09877765</v>
+        <v>104.05320343</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>99.65480414</v>
+        <v>100.1974986</v>
       </c>
       <c r="C170" t="n">
-        <v>101.30911733</v>
+        <v>101.14787761</v>
       </c>
       <c r="D170" t="n">
-        <v>101.07387866</v>
+        <v>103.34567691</v>
       </c>
       <c r="E170" t="n">
-        <v>101.18450153</v>
+        <v>101.47237924</v>
       </c>
       <c r="F170" t="n">
-        <v>101.64585511</v>
+        <v>102.81723561</v>
       </c>
       <c r="G170" t="n">
-        <v>101.60114868</v>
+        <v>102.48608048</v>
       </c>
       <c r="H170" t="n">
-        <v>99.4584255</v>
+        <v>99.27706187</v>
       </c>
       <c r="I170" t="n">
-        <v>102.36062401</v>
+        <v>101.92179889</v>
       </c>
       <c r="J170" t="n">
-        <v>102.4955405</v>
+        <v>103.67182722</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>99.18803551000001</v>
+        <v>99.58726579</v>
       </c>
       <c r="C171" t="n">
-        <v>101.27368576</v>
+        <v>101.03480234</v>
       </c>
       <c r="D171" t="n">
-        <v>100.97862807</v>
+        <v>102.14190515</v>
       </c>
       <c r="E171" t="n">
-        <v>101.17321915</v>
+        <v>101.25433932</v>
       </c>
       <c r="F171" t="n">
-        <v>101.35325672</v>
+        <v>102.79751674</v>
       </c>
       <c r="G171" t="n">
-        <v>101.43932617</v>
+        <v>101.95111081</v>
       </c>
       <c r="H171" t="n">
-        <v>99.33535113000001</v>
+        <v>99.31406784000001</v>
       </c>
       <c r="I171" t="n">
-        <v>102.61705626</v>
+        <v>102.22114359</v>
       </c>
       <c r="J171" t="n">
-        <v>102.30858972</v>
+        <v>102.65078207</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>98.59766411</v>
+        <v>99.60498468999999</v>
       </c>
       <c r="C172" t="n">
-        <v>101.53247638</v>
+        <v>101.17076106</v>
       </c>
       <c r="D172" t="n">
-        <v>100.87401489</v>
+        <v>102.11966941</v>
       </c>
       <c r="E172" t="n">
-        <v>101.13062099</v>
+        <v>101.23047473</v>
       </c>
       <c r="F172" t="n">
-        <v>101.00721525</v>
+        <v>102.51550575</v>
       </c>
       <c r="G172" t="n">
-        <v>101.50557006</v>
+        <v>102.38483796</v>
       </c>
       <c r="H172" t="n">
-        <v>99.32884916</v>
+        <v>99.34672405000001</v>
       </c>
       <c r="I172" t="n">
-        <v>102.62565378</v>
+        <v>102.33117699</v>
       </c>
       <c r="J172" t="n">
-        <v>102.85637882</v>
+        <v>104.0724088</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>100.1974986</v>
+        <v>100.05235363</v>
       </c>
       <c r="C173" t="n">
-        <v>101.14787761</v>
+        <v>101.19173687</v>
       </c>
       <c r="D173" t="n">
-        <v>103.34567691</v>
+        <v>101.9794198</v>
       </c>
       <c r="E173" t="n">
-        <v>101.47237924</v>
+        <v>101.2158767</v>
       </c>
       <c r="F173" t="n">
-        <v>102.81723561</v>
+        <v>102.40275761</v>
       </c>
       <c r="G173" t="n">
-        <v>102.48608048</v>
+        <v>101.80138144</v>
       </c>
       <c r="H173" t="n">
-        <v>99.27706187</v>
+        <v>99.35349766</v>
       </c>
       <c r="I173" t="n">
-        <v>101.92179889</v>
+        <v>102.30139699</v>
       </c>
       <c r="J173" t="n">
-        <v>103.67182722</v>
+        <v>102.28615586</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>99.58726579</v>
+        <v>100.57811787</v>
       </c>
       <c r="C174" t="n">
-        <v>101.03480234</v>
+        <v>101.24560157</v>
       </c>
       <c r="D174" t="n">
-        <v>102.14190515</v>
+        <v>102.12144631</v>
       </c>
       <c r="E174" t="n">
-        <v>101.25433932</v>
+        <v>101.18501987</v>
       </c>
       <c r="F174" t="n">
-        <v>102.79751674</v>
+        <v>102.3336158</v>
       </c>
       <c r="G174" t="n">
-        <v>101.95111081</v>
+        <v>102.47729864</v>
       </c>
       <c r="H174" t="n">
-        <v>99.31406784000001</v>
+        <v>99.40090429999999</v>
       </c>
       <c r="I174" t="n">
-        <v>102.22114359</v>
+        <v>102.50312011</v>
       </c>
       <c r="J174" t="n">
-        <v>102.65078207</v>
+        <v>104.10203555</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>99.60498468999999</v>
+        <v>100.64251465</v>
       </c>
       <c r="C175" t="n">
-        <v>101.17076106</v>
+        <v>101.2775448</v>
       </c>
       <c r="D175" t="n">
-        <v>102.11966941</v>
+        <v>102.09840126</v>
       </c>
       <c r="E175" t="n">
-        <v>101.23047473</v>
+        <v>101.21485013</v>
       </c>
       <c r="F175" t="n">
-        <v>102.51550575</v>
+        <v>102.22729298</v>
       </c>
       <c r="G175" t="n">
-        <v>102.38483796</v>
+        <v>102.33606951</v>
       </c>
       <c r="H175" t="n">
-        <v>99.34672405000001</v>
+        <v>99.42447013</v>
       </c>
       <c r="I175" t="n">
-        <v>102.33117699</v>
+        <v>102.59702437</v>
       </c>
       <c r="J175" t="n">
-        <v>104.0724088</v>
+        <v>103.68307327</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>100.05235363</v>
+        <v>100.67744128</v>
       </c>
       <c r="C176" t="n">
-        <v>101.19173687</v>
+        <v>101.42647211</v>
       </c>
       <c r="D176" t="n">
-        <v>101.9794198</v>
+        <v>102.12229749</v>
       </c>
       <c r="E176" t="n">
-        <v>101.2158767</v>
+        <v>101.13172841</v>
       </c>
       <c r="F176" t="n">
-        <v>102.40275761</v>
+        <v>102.01859008</v>
       </c>
       <c r="G176" t="n">
-        <v>101.80138144</v>
+        <v>102.28515176</v>
       </c>
       <c r="H176" t="n">
-        <v>99.35349766</v>
+        <v>99.43537808000001</v>
       </c>
       <c r="I176" t="n">
-        <v>102.30139699</v>
+        <v>102.62847162</v>
       </c>
       <c r="J176" t="n">
-        <v>102.28615586</v>
+        <v>103.59803117</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>100.57811787</v>
+        <v>100.17744786</v>
       </c>
       <c r="C177" t="n">
-        <v>101.24560157</v>
+        <v>101.38985165</v>
       </c>
       <c r="D177" t="n">
-        <v>102.12144631</v>
+        <v>101.93831817</v>
       </c>
       <c r="E177" t="n">
-        <v>101.18501987</v>
+        <v>101.08718613</v>
       </c>
       <c r="F177" t="n">
-        <v>102.3336158</v>
+        <v>101.85054852</v>
       </c>
       <c r="G177" t="n">
-        <v>102.47729864</v>
+        <v>101.99086727</v>
       </c>
       <c r="H177" t="n">
-        <v>99.40090429999999</v>
+        <v>99.36107111</v>
       </c>
       <c r="I177" t="n">
-        <v>102.50312011</v>
+        <v>102.59484574</v>
       </c>
       <c r="J177" t="n">
-        <v>104.10203555</v>
+        <v>103.04571827</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>100.64251465</v>
+        <v>99.65747408999999</v>
       </c>
       <c r="C178" t="n">
-        <v>101.2775448</v>
+        <v>101.2447942</v>
       </c>
       <c r="D178" t="n">
-        <v>102.09840126</v>
+        <v>101.88374672</v>
       </c>
       <c r="E178" t="n">
-        <v>101.21485013</v>
+        <v>101.12469803</v>
       </c>
       <c r="F178" t="n">
-        <v>102.22729298</v>
+        <v>101.64640122</v>
       </c>
       <c r="G178" t="n">
-        <v>102.33606951</v>
+        <v>101.62749503</v>
       </c>
       <c r="H178" t="n">
-        <v>99.42447013</v>
+        <v>99.38975954</v>
       </c>
       <c r="I178" t="n">
-        <v>102.59702437</v>
+        <v>102.37874444</v>
       </c>
       <c r="J178" t="n">
-        <v>103.68307327</v>
+        <v>102.322785</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>100.67744128</v>
+        <v>99.65480414</v>
       </c>
       <c r="C179" t="n">
-        <v>101.42647211</v>
+        <v>101.30911733</v>
       </c>
       <c r="D179" t="n">
-        <v>102.12229749</v>
+        <v>101.07387866</v>
       </c>
       <c r="E179" t="n">
-        <v>101.13172841</v>
+        <v>101.18450153</v>
       </c>
       <c r="F179" t="n">
-        <v>102.01859008</v>
+        <v>101.64585511</v>
       </c>
       <c r="G179" t="n">
-        <v>102.28515176</v>
+        <v>101.60114868</v>
       </c>
       <c r="H179" t="n">
-        <v>99.43537808000001</v>
+        <v>99.4584255</v>
       </c>
       <c r="I179" t="n">
-        <v>102.62847162</v>
+        <v>102.36062401</v>
       </c>
       <c r="J179" t="n">
-        <v>103.59803117</v>
+        <v>102.4955405</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>100.17744786</v>
+        <v>99.18803551000001</v>
       </c>
       <c r="C180" t="n">
-        <v>101.38985165</v>
+        <v>101.27368576</v>
       </c>
       <c r="D180" t="n">
-        <v>101.93831817</v>
+        <v>100.97862807</v>
       </c>
       <c r="E180" t="n">
-        <v>101.08718613</v>
+        <v>101.17321915</v>
       </c>
       <c r="F180" t="n">
-        <v>101.85054852</v>
+        <v>101.35325672</v>
       </c>
       <c r="G180" t="n">
-        <v>101.99086727</v>
+        <v>101.43932617</v>
       </c>
       <c r="H180" t="n">
-        <v>99.36107111</v>
+        <v>99.33535113000001</v>
       </c>
       <c r="I180" t="n">
-        <v>102.59484574</v>
+        <v>102.61705626</v>
       </c>
       <c r="J180" t="n">
-        <v>103.04571827</v>
+        <v>102.30858972</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>99.65747408999999</v>
+        <v>98.59766411</v>
       </c>
       <c r="C181" t="n">
-        <v>101.2447942</v>
+        <v>101.53247638</v>
       </c>
       <c r="D181" t="n">
-        <v>101.88374672</v>
+        <v>100.87401489</v>
       </c>
       <c r="E181" t="n">
-        <v>101.12469803</v>
+        <v>101.13062099</v>
       </c>
       <c r="F181" t="n">
-        <v>101.64640122</v>
+        <v>101.00721525</v>
       </c>
       <c r="G181" t="n">
-        <v>101.62749503</v>
+        <v>101.50557006</v>
       </c>
       <c r="H181" t="n">
-        <v>99.38975954</v>
+        <v>99.32884916</v>
       </c>
       <c r="I181" t="n">
-        <v>102.37874444</v>
+        <v>102.62565378</v>
       </c>
       <c r="J181" t="n">
-        <v>102.322785</v>
+        <v>102.85637882</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>98.14842624000001</v>
+        <v>97.77093757999999</v>
       </c>
       <c r="C182" t="n">
-        <v>102.20343902</v>
+        <v>101.61197717</v>
       </c>
       <c r="D182" t="n">
-        <v>101.11946566</v>
+        <v>100.29933316</v>
       </c>
       <c r="E182" t="n">
-        <v>100.8403766</v>
+        <v>100.91442318</v>
       </c>
       <c r="F182" t="n">
-        <v>100.61524391</v>
+        <v>100.8309846</v>
       </c>
       <c r="G182" t="n">
-        <v>101.26744712</v>
+        <v>100.76380909</v>
       </c>
       <c r="H182" t="n">
-        <v>103.75891511</v>
+        <v>99.5994778</v>
       </c>
       <c r="I182" t="n">
-        <v>102.42982452</v>
+        <v>102.86601151</v>
       </c>
       <c r="J182" t="n">
-        <v>101.94147357</v>
+        <v>101.10924251</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>98.59235042</v>
+        <v>98.29818236</v>
       </c>
       <c r="C183" t="n">
-        <v>102.56158129</v>
+        <v>101.91003183</v>
       </c>
       <c r="D183" t="n">
-        <v>101.20179802</v>
+        <v>101.83736364</v>
       </c>
       <c r="E183" t="n">
-        <v>100.83127237</v>
+        <v>101.45838505</v>
       </c>
       <c r="F183" t="n">
-        <v>100.72311111</v>
+        <v>100.57653067</v>
       </c>
       <c r="G183" t="n">
-        <v>101.48558345</v>
+        <v>101.43111999</v>
       </c>
       <c r="H183" t="n">
-        <v>103.84317038</v>
+        <v>99.43875575</v>
       </c>
       <c r="I183" t="n">
-        <v>102.196276</v>
+        <v>102.94166163</v>
       </c>
       <c r="J183" t="n">
-        <v>102.32217159</v>
+        <v>102.36570318</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>98.7275721</v>
+        <v>98.45912744</v>
       </c>
       <c r="C184" t="n">
-        <v>102.50513863</v>
+        <v>101.56255928</v>
       </c>
       <c r="D184" t="n">
-        <v>101.31180031</v>
+        <v>101.57342669</v>
       </c>
       <c r="E184" t="n">
-        <v>100.80369155</v>
+        <v>101.20270329</v>
       </c>
       <c r="F184" t="n">
-        <v>100.77890521</v>
+        <v>100.63124125</v>
       </c>
       <c r="G184" t="n">
-        <v>101.63697525</v>
+        <v>101.37577833</v>
       </c>
       <c r="H184" t="n">
-        <v>103.85272461</v>
+        <v>99.46831401</v>
       </c>
       <c r="I184" t="n">
-        <v>102.04628303</v>
+        <v>103.02002398</v>
       </c>
       <c r="J184" t="n">
-        <v>102.70606282</v>
+        <v>102.33295635</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>97.77093757999999</v>
+        <v>98.44503874999999</v>
       </c>
       <c r="C185" t="n">
-        <v>101.61197717</v>
+        <v>101.75786878</v>
       </c>
       <c r="D185" t="n">
-        <v>100.29933316</v>
+        <v>101.64927846</v>
       </c>
       <c r="E185" t="n">
-        <v>100.91442318</v>
+        <v>101.12552666</v>
       </c>
       <c r="F185" t="n">
-        <v>100.8309846</v>
+        <v>100.61287843</v>
       </c>
       <c r="G185" t="n">
-        <v>100.76380909</v>
+        <v>101.5090619</v>
       </c>
       <c r="H185" t="n">
-        <v>99.5994778</v>
+        <v>99.49548057</v>
       </c>
       <c r="I185" t="n">
-        <v>102.86601151</v>
+        <v>102.85285337</v>
       </c>
       <c r="J185" t="n">
-        <v>101.10924251</v>
+        <v>102.73147341</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>98.29818236</v>
+        <v>98.65984602</v>
       </c>
       <c r="C186" t="n">
-        <v>101.91003183</v>
+        <v>101.75402996</v>
       </c>
       <c r="D186" t="n">
-        <v>101.83736364</v>
+        <v>101.69217434</v>
       </c>
       <c r="E186" t="n">
-        <v>101.45838505</v>
+        <v>101.04274353</v>
       </c>
       <c r="F186" t="n">
-        <v>100.57653067</v>
+        <v>100.714401</v>
       </c>
       <c r="G186" t="n">
-        <v>101.43111999</v>
+        <v>101.23076711</v>
       </c>
       <c r="H186" t="n">
-        <v>99.43875575</v>
+        <v>101.67733812</v>
       </c>
       <c r="I186" t="n">
-        <v>102.94166163</v>
+        <v>102.82349316</v>
       </c>
       <c r="J186" t="n">
-        <v>102.36570318</v>
+        <v>101.59853348</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>98.45912744</v>
+        <v>98.49822647000001</v>
       </c>
       <c r="C187" t="n">
-        <v>101.56255928</v>
+        <v>101.93604066</v>
       </c>
       <c r="D187" t="n">
-        <v>101.57342669</v>
+        <v>101.7391749</v>
       </c>
       <c r="E187" t="n">
-        <v>101.20270329</v>
+        <v>101.02278695</v>
       </c>
       <c r="F187" t="n">
-        <v>100.63124125</v>
+        <v>100.7775772</v>
       </c>
       <c r="G187" t="n">
-        <v>101.37577833</v>
+        <v>101.39089989</v>
       </c>
       <c r="H187" t="n">
-        <v>99.46831401</v>
+        <v>103.51593714</v>
       </c>
       <c r="I187" t="n">
-        <v>103.02002398</v>
+        <v>102.91349147</v>
       </c>
       <c r="J187" t="n">
-        <v>102.33295635</v>
+        <v>101.85438798</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>98.44503874999999</v>
+        <v>98.19005181</v>
       </c>
       <c r="C188" t="n">
-        <v>101.75786878</v>
+        <v>101.91875956</v>
       </c>
       <c r="D188" t="n">
-        <v>101.64927846</v>
+        <v>101.68491432</v>
       </c>
       <c r="E188" t="n">
-        <v>101.12552666</v>
+        <v>101.0187306</v>
       </c>
       <c r="F188" t="n">
-        <v>100.61287843</v>
+        <v>100.78220392</v>
       </c>
       <c r="G188" t="n">
-        <v>101.5090619</v>
+        <v>101.64734136</v>
       </c>
       <c r="H188" t="n">
-        <v>99.49548057</v>
+        <v>103.61279826</v>
       </c>
       <c r="I188" t="n">
-        <v>102.85285337</v>
+        <v>102.94888592</v>
       </c>
       <c r="J188" t="n">
-        <v>102.73147341</v>
+        <v>102.72729016</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>98.65984602</v>
+        <v>97.90546064999999</v>
       </c>
       <c r="C189" t="n">
-        <v>101.75402996</v>
+        <v>101.94221403</v>
       </c>
       <c r="D189" t="n">
-        <v>101.69217434</v>
+        <v>101.8187141</v>
       </c>
       <c r="E189" t="n">
-        <v>101.04274353</v>
+        <v>100.98248516</v>
       </c>
       <c r="F189" t="n">
-        <v>100.714401</v>
+        <v>100.77021602</v>
       </c>
       <c r="G189" t="n">
-        <v>101.23076711</v>
+        <v>101.95537195</v>
       </c>
       <c r="H189" t="n">
-        <v>101.67733812</v>
+        <v>103.75127153</v>
       </c>
       <c r="I189" t="n">
-        <v>102.82349316</v>
+        <v>102.93188004</v>
       </c>
       <c r="J189" t="n">
-        <v>101.59853348</v>
+        <v>103.67717501</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>98.49822647000001</v>
+        <v>97.86031187</v>
       </c>
       <c r="C190" t="n">
-        <v>101.93604066</v>
+        <v>102.10439195</v>
       </c>
       <c r="D190" t="n">
-        <v>101.7391749</v>
+        <v>101.39170939</v>
       </c>
       <c r="E190" t="n">
-        <v>101.02278695</v>
+        <v>101.00180953</v>
       </c>
       <c r="F190" t="n">
-        <v>100.7775772</v>
+        <v>100.78532496</v>
       </c>
       <c r="G190" t="n">
-        <v>101.39089989</v>
+        <v>101.59560463</v>
       </c>
       <c r="H190" t="n">
-        <v>103.51593714</v>
+        <v>103.78785512</v>
       </c>
       <c r="I190" t="n">
-        <v>102.91349147</v>
+        <v>102.79655914</v>
       </c>
       <c r="J190" t="n">
-        <v>101.85438798</v>
+        <v>102.72358896</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>98.19005181</v>
+        <v>98.14842624000001</v>
       </c>
       <c r="C191" t="n">
-        <v>101.91875956</v>
+        <v>102.20343902</v>
       </c>
       <c r="D191" t="n">
-        <v>101.68491432</v>
+        <v>101.11946566</v>
       </c>
       <c r="E191" t="n">
-        <v>101.0187306</v>
+        <v>100.8403766</v>
       </c>
       <c r="F191" t="n">
-        <v>100.78220392</v>
+        <v>100.61524391</v>
       </c>
       <c r="G191" t="n">
-        <v>101.64734136</v>
+        <v>101.26744712</v>
       </c>
       <c r="H191" t="n">
-        <v>103.61279826</v>
+        <v>103.75891511</v>
       </c>
       <c r="I191" t="n">
-        <v>102.94888592</v>
+        <v>102.42982452</v>
       </c>
       <c r="J191" t="n">
-        <v>102.72729016</v>
+        <v>101.94147357</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>97.90546064999999</v>
+        <v>98.59235042</v>
       </c>
       <c r="C192" t="n">
-        <v>101.94221403</v>
+        <v>102.56158129</v>
       </c>
       <c r="D192" t="n">
-        <v>101.8187141</v>
+        <v>101.20179802</v>
       </c>
       <c r="E192" t="n">
-        <v>100.98248516</v>
+        <v>100.83127237</v>
       </c>
       <c r="F192" t="n">
-        <v>100.77021602</v>
+        <v>100.72311111</v>
       </c>
       <c r="G192" t="n">
-        <v>101.95537195</v>
+        <v>101.48558345</v>
       </c>
       <c r="H192" t="n">
-        <v>103.75127153</v>
+        <v>103.84317038</v>
       </c>
       <c r="I192" t="n">
-        <v>102.93188004</v>
+        <v>102.196276</v>
       </c>
       <c r="J192" t="n">
-        <v>103.67717501</v>
+        <v>102.32217159</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>97.86031187</v>
+        <v>98.7275721</v>
       </c>
       <c r="C193" t="n">
-        <v>102.10439195</v>
+        <v>102.50513863</v>
       </c>
       <c r="D193" t="n">
-        <v>101.39170939</v>
+        <v>101.31180031</v>
       </c>
       <c r="E193" t="n">
-        <v>101.00180953</v>
+        <v>100.80369155</v>
       </c>
       <c r="F193" t="n">
-        <v>100.78532496</v>
+        <v>100.77890521</v>
       </c>
       <c r="G193" t="n">
-        <v>101.59560463</v>
+        <v>101.63697525</v>
       </c>
       <c r="H193" t="n">
-        <v>103.78785512</v>
+        <v>103.85272461</v>
       </c>
       <c r="I193" t="n">
-        <v>102.79655914</v>
+        <v>102.04628303</v>
       </c>
       <c r="J193" t="n">
-        <v>102.72358896</v>
+        <v>102.70606282</v>
       </c>
     </row>
   </sheetData>
